--- a/content/post/fumbbl_blogpost_src/data/race_tiers_mapping.xlsx
+++ b/content/post/fumbbl_blogpost_src/data/race_tiers_mapping.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="1031">
   <si>
     <t xml:space="preserve">race_name</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">naf_tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb2020_nov21_tier</t>
   </si>
   <si>
     <t xml:space="preserve">Orc</t>
@@ -3236,10 +3239,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1027"/>
+  <dimension ref="A1:F1027"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3262,13 +3265,16 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>14884</v>
@@ -3278,6 +3284,9 @@
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>12157</v>
@@ -3294,6 +3303,9 @@
         <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,7 +3314,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>11313</v>
@@ -3311,6 +3323,9 @@
         <v>2</v>
       </c>
       <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3319,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>10934</v>
@@ -3328,6 +3343,9 @@
         <v>1</v>
       </c>
       <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>10809</v>
@@ -3345,6 +3363,9 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3353,7 +3374,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>10577</v>
@@ -3362,6 +3383,9 @@
         <v>2</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3370,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>10344</v>
@@ -3379,6 +3403,9 @@
         <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,7 +3414,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9992</v>
@@ -3396,6 +3423,9 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,7 +3434,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9886</v>
@@ -3413,6 +3443,9 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3421,7 +3454,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>9313</v>
@@ -3430,6 +3463,9 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>8062</v>
@@ -3447,6 +3483,9 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3455,7 +3494,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>8059</v>
@@ -3464,6 +3503,9 @@
         <v>2</v>
       </c>
       <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3472,7 +3514,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>7845</v>
@@ -3481,6 +3523,9 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3489,7 +3534,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>6814</v>
@@ -3498,6 +3543,9 @@
         <v>2</v>
       </c>
       <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3506,7 +3554,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>6455</v>
@@ -3515,6 +3563,9 @@
         <v>2</v>
       </c>
       <c r="E16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3523,7 +3574,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>6118</v>
@@ -3533,6 +3584,9 @@
       </c>
       <c r="E17" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3540,7 +3594,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>6088</v>
@@ -3550,6 +3604,9 @@
       </c>
       <c r="E18" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,7 +3614,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>5768</v>
@@ -3566,6 +3623,9 @@
         <v>3</v>
       </c>
       <c r="E19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3574,7 +3634,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>5649</v>
@@ -3583,6 +3643,9 @@
         <v>1</v>
       </c>
       <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3591,7 +3654,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>5416</v>
@@ -3600,6 +3663,9 @@
         <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3608,7 +3674,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>5351</v>
@@ -3617,6 +3683,9 @@
         <v>3</v>
       </c>
       <c r="E22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3625,7 +3694,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>5223</v>
@@ -3634,6 +3703,9 @@
         <v>2</v>
       </c>
       <c r="E23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3642,7 +3714,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4284</v>
@@ -3651,6 +3723,9 @@
         <v>3</v>
       </c>
       <c r="E24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3659,7 +3734,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>4168</v>
@@ -3668,6 +3743,9 @@
         <v>3</v>
       </c>
       <c r="E25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3676,7 +3754,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3813</v>
@@ -3685,6 +3763,9 @@
         <v>2</v>
       </c>
       <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3693,7 +3774,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3312</v>
@@ -3707,7 +3788,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2129</v>
@@ -3721,7 +3802,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2003</v>
@@ -3730,6 +3811,9 @@
         <v>2</v>
       </c>
       <c r="E29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3738,7 +3822,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1830</v>
@@ -3747,6 +3831,9 @@
         <v>2</v>
       </c>
       <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3755,7 +3842,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1224</v>
@@ -3764,6 +3851,9 @@
         <v>2</v>
       </c>
       <c r="E31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3772,7 +3862,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>983</v>
@@ -3783,7 +3873,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>465</v>
@@ -3794,7 +3884,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>459</v>
@@ -3805,7 +3895,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>396</v>
@@ -3816,7 +3906,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>390</v>
@@ -3827,7 +3917,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>374</v>
@@ -3838,7 +3928,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>374</v>
@@ -3849,7 +3939,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>373</v>
@@ -3860,7 +3950,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>371</v>
@@ -3871,7 +3961,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>343</v>
@@ -3882,7 +3972,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>341</v>
@@ -3893,7 +3983,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>340</v>
@@ -3904,7 +3994,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>334</v>
@@ -3915,7 +4005,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>333</v>
@@ -3926,7 +4016,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>331</v>
@@ -3937,7 +4027,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>321</v>
@@ -3948,7 +4038,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>319</v>
@@ -3959,7 +4049,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>319</v>
@@ -3970,7 +4060,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>318</v>
@@ -3981,7 +4071,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>316</v>
@@ -3992,7 +4082,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>313</v>
@@ -4003,7 +4093,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>309</v>
@@ -4014,7 +4104,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>304</v>
@@ -4025,7 +4115,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>287</v>
@@ -4036,7 +4126,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>282</v>
@@ -4047,7 +4137,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>277</v>
@@ -4058,7 +4148,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>272</v>
@@ -4069,7 +4159,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>267</v>
@@ -4080,7 +4170,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>255</v>
@@ -4091,7 +4181,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>244</v>
@@ -4102,7 +4192,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>227</v>
@@ -4113,7 +4203,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>226</v>
@@ -4124,7 +4214,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>225</v>
@@ -4135,7 +4225,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>223</v>
@@ -4146,7 +4236,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>218</v>
@@ -4157,7 +4247,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>216</v>
@@ -4168,7 +4258,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>210</v>
@@ -4179,7 +4269,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>209</v>
@@ -4190,7 +4280,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>208</v>
@@ -4201,7 +4291,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>207</v>
@@ -4212,7 +4302,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>204</v>
@@ -4223,7 +4313,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>202</v>
@@ -4234,7 +4324,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>197</v>
@@ -4245,7 +4335,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>194</v>
@@ -4256,7 +4346,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>191</v>
@@ -4267,7 +4357,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>190</v>
@@ -4278,7 +4368,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>184</v>
@@ -4289,7 +4379,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>182</v>
@@ -4300,7 +4390,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>181</v>
@@ -4311,7 +4401,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>179</v>
@@ -4322,7 +4412,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>177</v>
@@ -4333,7 +4423,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>175</v>
@@ -4344,7 +4434,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>175</v>
@@ -4355,7 +4445,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>175</v>
@@ -4366,7 +4456,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>174</v>
@@ -4377,7 +4467,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>173</v>
@@ -4388,7 +4478,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>172</v>
@@ -4399,7 +4489,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>171</v>
@@ -4410,7 +4500,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>169</v>
@@ -4421,7 +4511,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>167</v>
@@ -4432,7 +4522,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>158</v>
@@ -4443,7 +4533,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>154</v>
@@ -4454,7 +4544,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>151</v>
@@ -4465,7 +4555,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>148</v>
@@ -4476,7 +4566,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>147</v>
@@ -4487,7 +4577,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>147</v>
@@ -4498,7 +4588,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>146</v>
@@ -4509,7 +4599,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>146</v>
@@ -4520,7 +4610,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>144</v>
@@ -4531,7 +4621,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>143</v>
@@ -4542,7 +4632,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>143</v>
@@ -4553,7 +4643,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>139</v>
@@ -4564,7 +4654,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>139</v>
@@ -4575,7 +4665,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>138</v>
@@ -4586,7 +4676,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>135</v>
@@ -4597,7 +4687,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>131</v>
@@ -4608,7 +4698,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>130</v>
@@ -4619,7 +4709,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>130</v>
@@ -4630,7 +4720,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>129</v>
@@ -4641,7 +4731,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>127</v>
@@ -4652,7 +4742,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>126</v>
@@ -4663,7 +4753,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>126</v>
@@ -4674,7 +4764,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>126</v>
@@ -4685,7 +4775,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>122</v>
@@ -4696,7 +4786,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>121</v>
@@ -4707,7 +4797,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>121</v>
@@ -4718,7 +4808,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>120</v>
@@ -4729,7 +4819,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>117</v>
@@ -4740,7 +4830,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>116</v>
@@ -4751,7 +4841,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>116</v>
@@ -4762,7 +4852,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>109</v>
@@ -4773,7 +4863,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>109</v>
@@ -4784,7 +4874,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>107</v>
@@ -4795,7 +4885,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>103</v>
@@ -4806,7 +4896,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>101</v>
@@ -4817,7 +4907,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>101</v>
@@ -4828,7 +4918,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>101</v>
@@ -4839,7 +4929,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>100</v>
@@ -4850,7 +4940,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>98</v>
@@ -4861,7 +4951,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>95</v>
@@ -4872,7 +4962,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>93</v>
@@ -4883,7 +4973,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>89</v>
@@ -4894,7 +4984,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>85</v>
@@ -4905,7 +4995,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>82</v>
@@ -4916,7 +5006,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>81</v>
@@ -4927,7 +5017,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>81</v>
@@ -4938,7 +5028,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>80</v>
@@ -4949,7 +5039,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>77</v>
@@ -4960,7 +5050,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>75</v>
@@ -4971,7 +5061,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>75</v>
@@ -4982,7 +5072,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>74</v>
@@ -4993,7 +5083,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>71</v>
@@ -5004,7 +5094,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>69</v>
@@ -5015,7 +5105,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>58</v>
@@ -5026,7 +5116,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>54</v>
@@ -5037,7 +5127,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>52</v>
@@ -5048,7 +5138,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>51</v>
@@ -5059,7 +5149,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>50</v>
@@ -5070,7 +5160,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>47</v>
@@ -5081,7 +5171,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>42</v>
@@ -5092,7 +5182,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>42</v>
@@ -5103,7 +5193,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>41</v>
@@ -5114,7 +5204,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>41</v>
@@ -5125,7 +5215,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>40</v>
@@ -5136,7 +5226,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>40</v>
@@ -5147,7 +5237,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>40</v>
@@ -5158,7 +5248,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>39</v>
@@ -5169,7 +5259,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>39</v>
@@ -5180,7 +5270,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>39</v>
@@ -5191,7 +5281,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>39</v>
@@ -5202,7 +5292,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>39</v>
@@ -5213,7 +5303,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>38</v>
@@ -5224,7 +5314,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>38</v>
@@ -5235,7 +5325,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>38</v>
@@ -5246,7 +5336,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>38</v>
@@ -5257,7 +5347,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>38</v>
@@ -5268,7 +5358,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>38</v>
@@ -5279,7 +5369,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>38</v>
@@ -5290,7 +5380,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>38</v>
@@ -5301,7 +5391,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>38</v>
@@ -5312,7 +5402,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>38</v>
@@ -5323,7 +5413,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>38</v>
@@ -5334,7 +5424,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>37</v>
@@ -5345,7 +5435,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>37</v>
@@ -5356,7 +5446,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>37</v>
@@ -5367,7 +5457,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>37</v>
@@ -5378,7 +5468,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>37</v>
@@ -5389,7 +5479,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>37</v>
@@ -5400,7 +5490,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>37</v>
@@ -5411,7 +5501,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>37</v>
@@ -5422,7 +5512,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>37</v>
@@ -5433,7 +5523,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>37</v>
@@ -5444,7 +5534,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>37</v>
@@ -5455,7 +5545,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>36</v>
@@ -5466,7 +5556,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>36</v>
@@ -5477,7 +5567,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>36</v>
@@ -5488,7 +5578,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>36</v>
@@ -5499,7 +5589,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>36</v>
@@ -5510,7 +5600,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>36</v>
@@ -5521,7 +5611,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>36</v>
@@ -5532,7 +5622,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>36</v>
@@ -5543,7 +5633,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>36</v>
@@ -5554,7 +5644,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>36</v>
@@ -5565,7 +5655,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>36</v>
@@ -5576,7 +5666,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>36</v>
@@ -5587,7 +5677,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>35</v>
@@ -5598,7 +5688,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>35</v>
@@ -5609,7 +5699,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>35</v>
@@ -5620,7 +5710,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>35</v>
@@ -5631,7 +5721,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>35</v>
@@ -5642,7 +5732,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>35</v>
@@ -5653,7 +5743,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>35</v>
@@ -5664,7 +5754,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>35</v>
@@ -5675,7 +5765,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>35</v>
@@ -5686,7 +5776,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>35</v>
@@ -5697,7 +5787,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>35</v>
@@ -5708,7 +5798,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>35</v>
@@ -5719,7 +5809,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>35</v>
@@ -5730,7 +5820,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>35</v>
@@ -5741,7 +5831,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>35</v>
@@ -5752,7 +5842,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>35</v>
@@ -5763,7 +5853,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>35</v>
@@ -5774,7 +5864,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>34</v>
@@ -5785,7 +5875,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>34</v>
@@ -5796,7 +5886,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C216" s="0" t="n">
         <v>34</v>
@@ -5807,7 +5897,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C217" s="0" t="n">
         <v>34</v>
@@ -5818,7 +5908,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C218" s="0" t="n">
         <v>34</v>
@@ -5829,7 +5919,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C219" s="0" t="n">
         <v>34</v>
@@ -5840,7 +5930,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C220" s="0" t="n">
         <v>34</v>
@@ -5851,7 +5941,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C221" s="0" t="n">
         <v>34</v>
@@ -5862,7 +5952,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C222" s="0" t="n">
         <v>34</v>
@@ -5873,7 +5963,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C223" s="0" t="n">
         <v>34</v>
@@ -5884,7 +5974,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C224" s="0" t="n">
         <v>34</v>
@@ -5895,7 +5985,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C225" s="0" t="n">
         <v>34</v>
@@ -5906,7 +5996,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C226" s="0" t="n">
         <v>34</v>
@@ -5917,7 +6007,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C227" s="0" t="n">
         <v>34</v>
@@ -5928,7 +6018,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C228" s="0" t="n">
         <v>34</v>
@@ -5939,7 +6029,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C229" s="0" t="n">
         <v>34</v>
@@ -5950,7 +6040,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C230" s="0" t="n">
         <v>34</v>
@@ -5961,7 +6051,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>33</v>
@@ -5972,7 +6062,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C232" s="0" t="n">
         <v>33</v>
@@ -5983,7 +6073,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C233" s="0" t="n">
         <v>33</v>
@@ -5994,7 +6084,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C234" s="0" t="n">
         <v>33</v>
@@ -6005,7 +6095,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>33</v>
@@ -6016,7 +6106,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C236" s="0" t="n">
         <v>33</v>
@@ -6027,7 +6117,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C237" s="0" t="n">
         <v>33</v>
@@ -6038,7 +6128,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C238" s="0" t="n">
         <v>33</v>
@@ -6049,7 +6139,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C239" s="0" t="n">
         <v>33</v>
@@ -6060,7 +6150,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C240" s="0" t="n">
         <v>33</v>
@@ -6071,7 +6161,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C241" s="0" t="n">
         <v>33</v>
@@ -6082,7 +6172,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C242" s="0" t="n">
         <v>33</v>
@@ -6093,7 +6183,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C243" s="0" t="n">
         <v>33</v>
@@ -6104,7 +6194,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C244" s="0" t="n">
         <v>33</v>
@@ -6115,7 +6205,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C245" s="0" t="n">
         <v>33</v>
@@ -6126,7 +6216,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C246" s="0" t="n">
         <v>32</v>
@@ -6137,7 +6227,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C247" s="0" t="n">
         <v>32</v>
@@ -6148,7 +6238,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C248" s="0" t="n">
         <v>32</v>
@@ -6159,7 +6249,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C249" s="0" t="n">
         <v>32</v>
@@ -6170,7 +6260,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C250" s="0" t="n">
         <v>32</v>
@@ -6181,7 +6271,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C251" s="0" t="n">
         <v>32</v>
@@ -6192,7 +6282,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C252" s="0" t="n">
         <v>32</v>
@@ -6203,7 +6293,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C253" s="0" t="n">
         <v>32</v>
@@ -6214,7 +6304,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C254" s="0" t="n">
         <v>32</v>
@@ -6225,7 +6315,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C255" s="0" t="n">
         <v>32</v>
@@ -6236,7 +6326,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C256" s="0" t="n">
         <v>32</v>
@@ -6247,7 +6337,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C257" s="0" t="n">
         <v>32</v>
@@ -6258,7 +6348,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C258" s="0" t="n">
         <v>32</v>
@@ -6269,7 +6359,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C259" s="0" t="n">
         <v>32</v>
@@ -6280,7 +6370,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C260" s="0" t="n">
         <v>32</v>
@@ -6291,7 +6381,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C261" s="0" t="n">
         <v>32</v>
@@ -6302,7 +6392,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C262" s="0" t="n">
         <v>32</v>
@@ -6313,7 +6403,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C263" s="0" t="n">
         <v>32</v>
@@ -6324,7 +6414,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C264" s="0" t="n">
         <v>32</v>
@@ -6335,7 +6425,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C265" s="0" t="n">
         <v>32</v>
@@ -6346,7 +6436,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C266" s="0" t="n">
         <v>31</v>
@@ -6357,7 +6447,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C267" s="0" t="n">
         <v>31</v>
@@ -6368,7 +6458,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C268" s="0" t="n">
         <v>31</v>
@@ -6379,7 +6469,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C269" s="0" t="n">
         <v>31</v>
@@ -6390,7 +6480,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C270" s="0" t="n">
         <v>31</v>
@@ -6401,7 +6491,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C271" s="0" t="n">
         <v>31</v>
@@ -6412,7 +6502,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C272" s="0" t="n">
         <v>31</v>
@@ -6423,7 +6513,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C273" s="0" t="n">
         <v>31</v>
@@ -6434,7 +6524,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C274" s="0" t="n">
         <v>31</v>
@@ -6445,7 +6535,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C275" s="0" t="n">
         <v>31</v>
@@ -6456,7 +6546,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C276" s="0" t="n">
         <v>31</v>
@@ -6467,7 +6557,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C277" s="0" t="n">
         <v>31</v>
@@ -6478,7 +6568,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C278" s="0" t="n">
         <v>31</v>
@@ -6489,7 +6579,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C279" s="0" t="n">
         <v>31</v>
@@ -6500,7 +6590,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C280" s="0" t="n">
         <v>31</v>
@@ -6511,7 +6601,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C281" s="0" t="n">
         <v>31</v>
@@ -6522,7 +6612,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C282" s="0" t="n">
         <v>31</v>
@@ -6533,7 +6623,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C283" s="0" t="n">
         <v>30</v>
@@ -6544,7 +6634,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C284" s="0" t="n">
         <v>30</v>
@@ -6555,7 +6645,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C285" s="0" t="n">
         <v>30</v>
@@ -6566,7 +6656,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C286" s="0" t="n">
         <v>30</v>
@@ -6577,7 +6667,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C287" s="0" t="n">
         <v>30</v>
@@ -6588,7 +6678,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C288" s="0" t="n">
         <v>30</v>
@@ -6599,7 +6689,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C289" s="0" t="n">
         <v>30</v>
@@ -6610,7 +6700,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C290" s="0" t="n">
         <v>30</v>
@@ -6621,7 +6711,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C291" s="0" t="n">
         <v>30</v>
@@ -6632,7 +6722,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C292" s="0" t="n">
         <v>30</v>
@@ -6643,7 +6733,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C293" s="0" t="n">
         <v>30</v>
@@ -6654,7 +6744,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C294" s="0" t="n">
         <v>30</v>
@@ -6665,7 +6755,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C295" s="0" t="n">
         <v>30</v>
@@ -6676,7 +6766,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C296" s="0" t="n">
         <v>30</v>
@@ -6687,7 +6777,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C297" s="0" t="n">
         <v>30</v>
@@ -6698,7 +6788,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C298" s="0" t="n">
         <v>30</v>
@@ -6709,7 +6799,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C299" s="0" t="n">
         <v>30</v>
@@ -6720,7 +6810,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C300" s="0" t="n">
         <v>29</v>
@@ -6731,7 +6821,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C301" s="0" t="n">
         <v>29</v>
@@ -6742,7 +6832,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C302" s="0" t="n">
         <v>29</v>
@@ -6753,7 +6843,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C303" s="0" t="n">
         <v>29</v>
@@ -6764,7 +6854,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C304" s="0" t="n">
         <v>29</v>
@@ -6775,7 +6865,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C305" s="0" t="n">
         <v>29</v>
@@ -6786,7 +6876,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C306" s="0" t="n">
         <v>29</v>
@@ -6797,7 +6887,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C307" s="0" t="n">
         <v>29</v>
@@ -6808,7 +6898,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C308" s="0" t="n">
         <v>29</v>
@@ -6819,7 +6909,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C309" s="0" t="n">
         <v>29</v>
@@ -6830,7 +6920,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C310" s="0" t="n">
         <v>29</v>
@@ -6841,7 +6931,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C311" s="0" t="n">
         <v>29</v>
@@ -6852,7 +6942,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C312" s="0" t="n">
         <v>29</v>
@@ -6863,7 +6953,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C313" s="0" t="n">
         <v>29</v>
@@ -6874,7 +6964,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C314" s="0" t="n">
         <v>29</v>
@@ -6885,7 +6975,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C315" s="0" t="n">
         <v>29</v>
@@ -6896,7 +6986,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C316" s="0" t="n">
         <v>29</v>
@@ -6907,7 +6997,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C317" s="0" t="n">
         <v>29</v>
@@ -6918,7 +7008,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C318" s="0" t="n">
         <v>29</v>
@@ -6929,7 +7019,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C319" s="0" t="n">
         <v>29</v>
@@ -6940,7 +7030,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C320" s="0" t="n">
         <v>29</v>
@@ -6951,7 +7041,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C321" s="0" t="n">
         <v>29</v>
@@ -6962,7 +7052,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C322" s="0" t="n">
         <v>28</v>
@@ -6973,7 +7063,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C323" s="0" t="n">
         <v>28</v>
@@ -6984,7 +7074,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C324" s="0" t="n">
         <v>28</v>
@@ -6995,7 +7085,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C325" s="0" t="n">
         <v>28</v>
@@ -7006,7 +7096,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C326" s="0" t="n">
         <v>28</v>
@@ -7017,7 +7107,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C327" s="0" t="n">
         <v>28</v>
@@ -7028,7 +7118,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C328" s="0" t="n">
         <v>28</v>
@@ -7039,7 +7129,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C329" s="0" t="n">
         <v>28</v>
@@ -7050,7 +7140,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C330" s="0" t="n">
         <v>28</v>
@@ -7061,7 +7151,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C331" s="0" t="n">
         <v>28</v>
@@ -7072,7 +7162,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C332" s="0" t="n">
         <v>28</v>
@@ -7083,7 +7173,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C333" s="0" t="n">
         <v>28</v>
@@ -7094,7 +7184,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C334" s="0" t="n">
         <v>28</v>
@@ -7105,7 +7195,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C335" s="0" t="n">
         <v>28</v>
@@ -7116,7 +7206,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C336" s="0" t="n">
         <v>28</v>
@@ -7127,7 +7217,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C337" s="0" t="n">
         <v>28</v>
@@ -7138,7 +7228,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C338" s="0" t="n">
         <v>28</v>
@@ -7149,7 +7239,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C339" s="0" t="n">
         <v>28</v>
@@ -7160,7 +7250,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C340" s="0" t="n">
         <v>28</v>
@@ -7171,7 +7261,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C341" s="0" t="n">
         <v>28</v>
@@ -7182,7 +7272,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C342" s="0" t="n">
         <v>28</v>
@@ -7193,7 +7283,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C343" s="0" t="n">
         <v>28</v>
@@ -7204,7 +7294,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C344" s="0" t="n">
         <v>27</v>
@@ -7215,7 +7305,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C345" s="0" t="n">
         <v>27</v>
@@ -7226,7 +7316,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C346" s="0" t="n">
         <v>27</v>
@@ -7237,7 +7327,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C347" s="0" t="n">
         <v>27</v>
@@ -7248,7 +7338,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C348" s="0" t="n">
         <v>27</v>
@@ -7259,7 +7349,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C349" s="0" t="n">
         <v>27</v>
@@ -7270,7 +7360,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C350" s="0" t="n">
         <v>27</v>
@@ -7281,7 +7371,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C351" s="0" t="n">
         <v>27</v>
@@ -7292,7 +7382,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C352" s="0" t="n">
         <v>27</v>
@@ -7303,7 +7393,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C353" s="0" t="n">
         <v>27</v>
@@ -7314,7 +7404,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C354" s="0" t="n">
         <v>27</v>
@@ -7325,7 +7415,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C355" s="0" t="n">
         <v>27</v>
@@ -7336,7 +7426,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C356" s="0" t="n">
         <v>27</v>
@@ -7347,7 +7437,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C357" s="0" t="n">
         <v>27</v>
@@ -7358,7 +7448,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C358" s="0" t="n">
         <v>27</v>
@@ -7369,7 +7459,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C359" s="0" t="n">
         <v>26</v>
@@ -7380,7 +7470,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C360" s="0" t="n">
         <v>26</v>
@@ -7391,7 +7481,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C361" s="0" t="n">
         <v>26</v>
@@ -7402,7 +7492,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C362" s="0" t="n">
         <v>26</v>
@@ -7413,7 +7503,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C363" s="0" t="n">
         <v>26</v>
@@ -7424,7 +7514,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C364" s="0" t="n">
         <v>26</v>
@@ -7435,7 +7525,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C365" s="0" t="n">
         <v>26</v>
@@ -7446,7 +7536,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C366" s="0" t="n">
         <v>26</v>
@@ -7457,7 +7547,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C367" s="0" t="n">
         <v>26</v>
@@ -7468,7 +7558,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C368" s="0" t="n">
         <v>26</v>
@@ -7479,7 +7569,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C369" s="0" t="n">
         <v>26</v>
@@ -7490,7 +7580,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C370" s="0" t="n">
         <v>26</v>
@@ -7501,7 +7591,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C371" s="0" t="n">
         <v>25</v>
@@ -7512,7 +7602,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C372" s="0" t="n">
         <v>25</v>
@@ -7523,7 +7613,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C373" s="0" t="n">
         <v>25</v>
@@ -7534,7 +7624,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C374" s="0" t="n">
         <v>25</v>
@@ -7545,7 +7635,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C375" s="0" t="n">
         <v>25</v>
@@ -7556,7 +7646,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C376" s="0" t="n">
         <v>25</v>
@@ -7567,7 +7657,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C377" s="0" t="n">
         <v>25</v>
@@ -7578,7 +7668,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C378" s="0" t="n">
         <v>25</v>
@@ -7589,7 +7679,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C379" s="0" t="n">
         <v>25</v>
@@ -7600,7 +7690,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C380" s="0" t="n">
         <v>25</v>
@@ -7611,7 +7701,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C381" s="0" t="n">
         <v>25</v>
@@ -7622,7 +7712,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C382" s="0" t="n">
         <v>25</v>
@@ -7633,7 +7723,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C383" s="0" t="n">
         <v>25</v>
@@ -7644,7 +7734,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C384" s="0" t="n">
         <v>25</v>
@@ -7655,7 +7745,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C385" s="0" t="n">
         <v>25</v>
@@ -7666,7 +7756,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C386" s="0" t="n">
         <v>25</v>
@@ -7677,7 +7767,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C387" s="0" t="n">
         <v>25</v>
@@ -7688,7 +7778,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C388" s="0" t="n">
         <v>25</v>
@@ -7699,7 +7789,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C389" s="0" t="n">
         <v>25</v>
@@ -7710,7 +7800,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C390" s="0" t="n">
         <v>24</v>
@@ -7721,7 +7811,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C391" s="0" t="n">
         <v>24</v>
@@ -7732,7 +7822,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C392" s="0" t="n">
         <v>24</v>
@@ -7743,7 +7833,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C393" s="0" t="n">
         <v>24</v>
@@ -7754,7 +7844,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C394" s="0" t="n">
         <v>24</v>
@@ -7765,7 +7855,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C395" s="0" t="n">
         <v>24</v>
@@ -7776,7 +7866,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C396" s="0" t="n">
         <v>24</v>
@@ -7787,7 +7877,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C397" s="0" t="n">
         <v>24</v>
@@ -7798,7 +7888,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C398" s="0" t="n">
         <v>24</v>
@@ -7809,7 +7899,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C399" s="0" t="n">
         <v>24</v>
@@ -7820,7 +7910,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C400" s="0" t="n">
         <v>24</v>
@@ -7831,7 +7921,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C401" s="0" t="n">
         <v>24</v>
@@ -7842,7 +7932,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C402" s="0" t="n">
         <v>23</v>
@@ -7853,7 +7943,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C403" s="0" t="n">
         <v>23</v>
@@ -7864,7 +7954,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C404" s="0" t="n">
         <v>23</v>
@@ -7875,7 +7965,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C405" s="0" t="n">
         <v>23</v>
@@ -7886,7 +7976,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C406" s="0" t="n">
         <v>23</v>
@@ -7897,7 +7987,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C407" s="0" t="n">
         <v>23</v>
@@ -7908,7 +7998,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C408" s="0" t="n">
         <v>23</v>
@@ -7919,7 +8009,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C409" s="0" t="n">
         <v>23</v>
@@ -7930,7 +8020,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C410" s="0" t="n">
         <v>23</v>
@@ -7941,7 +8031,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C411" s="0" t="n">
         <v>23</v>
@@ -7952,7 +8042,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C412" s="0" t="n">
         <v>23</v>
@@ -7963,7 +8053,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C413" s="0" t="n">
         <v>23</v>
@@ -7974,7 +8064,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C414" s="0" t="n">
         <v>22</v>
@@ -7985,7 +8075,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C415" s="0" t="n">
         <v>22</v>
@@ -7996,7 +8086,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C416" s="0" t="n">
         <v>22</v>
@@ -8007,7 +8097,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C417" s="0" t="n">
         <v>22</v>
@@ -8018,7 +8108,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C418" s="0" t="n">
         <v>22</v>
@@ -8029,7 +8119,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C419" s="0" t="n">
         <v>22</v>
@@ -8040,7 +8130,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C420" s="0" t="n">
         <v>22</v>
@@ -8051,7 +8141,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C421" s="0" t="n">
         <v>22</v>
@@ -8062,7 +8152,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C422" s="0" t="n">
         <v>22</v>
@@ -8073,7 +8163,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C423" s="0" t="n">
         <v>22</v>
@@ -8084,7 +8174,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C424" s="0" t="n">
         <v>22</v>
@@ -8095,7 +8185,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C425" s="0" t="n">
         <v>22</v>
@@ -8106,7 +8196,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C426" s="0" t="n">
         <v>22</v>
@@ -8117,7 +8207,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C427" s="0" t="n">
         <v>22</v>
@@ -8128,7 +8218,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C428" s="0" t="n">
         <v>22</v>
@@ -8139,7 +8229,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C429" s="0" t="n">
         <v>22</v>
@@ -8150,7 +8240,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C430" s="0" t="n">
         <v>22</v>
@@ -8161,7 +8251,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C431" s="0" t="n">
         <v>21</v>
@@ -8172,7 +8262,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C432" s="0" t="n">
         <v>21</v>
@@ -8183,7 +8273,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C433" s="0" t="n">
         <v>21</v>
@@ -8194,7 +8284,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C434" s="0" t="n">
         <v>21</v>
@@ -8205,7 +8295,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C435" s="0" t="n">
         <v>21</v>
@@ -8216,7 +8306,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C436" s="0" t="n">
         <v>21</v>
@@ -8227,7 +8317,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C437" s="0" t="n">
         <v>21</v>
@@ -8238,7 +8328,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C438" s="0" t="n">
         <v>21</v>
@@ -8249,7 +8339,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C439" s="0" t="n">
         <v>21</v>
@@ -8260,7 +8350,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C440" s="0" t="n">
         <v>21</v>
@@ -8271,7 +8361,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C441" s="0" t="n">
         <v>21</v>
@@ -8282,7 +8372,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C442" s="0" t="n">
         <v>21</v>
@@ -8293,7 +8383,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C443" s="0" t="n">
         <v>21</v>
@@ -8304,7 +8394,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C444" s="0" t="n">
         <v>21</v>
@@ -8315,7 +8405,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C445" s="0" t="n">
         <v>21</v>
@@ -8326,7 +8416,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C446" s="0" t="n">
         <v>21</v>
@@ -8337,7 +8427,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C447" s="0" t="n">
         <v>21</v>
@@ -8348,7 +8438,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C448" s="0" t="n">
         <v>20</v>
@@ -8359,7 +8449,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C449" s="0" t="n">
         <v>20</v>
@@ -8370,7 +8460,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C450" s="0" t="n">
         <v>20</v>
@@ -8381,7 +8471,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C451" s="0" t="n">
         <v>20</v>
@@ -8392,7 +8482,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C452" s="0" t="n">
         <v>20</v>
@@ -8403,7 +8493,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C453" s="0" t="n">
         <v>20</v>
@@ -8414,7 +8504,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C454" s="0" t="n">
         <v>20</v>
@@ -8425,7 +8515,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C455" s="0" t="n">
         <v>20</v>
@@ -8436,7 +8526,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C456" s="0" t="n">
         <v>20</v>
@@ -8447,7 +8537,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C457" s="0" t="n">
         <v>20</v>
@@ -8458,7 +8548,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C458" s="0" t="n">
         <v>20</v>
@@ -8469,7 +8559,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C459" s="0" t="n">
         <v>20</v>
@@ -8480,7 +8570,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C460" s="0" t="n">
         <v>19</v>
@@ -8491,7 +8581,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C461" s="0" t="n">
         <v>19</v>
@@ -8502,7 +8592,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C462" s="0" t="n">
         <v>19</v>
@@ -8513,7 +8603,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C463" s="0" t="n">
         <v>19</v>
@@ -8524,7 +8614,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C464" s="0" t="n">
         <v>19</v>
@@ -8535,7 +8625,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C465" s="0" t="n">
         <v>19</v>
@@ -8546,7 +8636,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C466" s="0" t="n">
         <v>19</v>
@@ -8557,7 +8647,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C467" s="0" t="n">
         <v>19</v>
@@ -8568,7 +8658,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C468" s="0" t="n">
         <v>19</v>
@@ -8579,7 +8669,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C469" s="0" t="n">
         <v>19</v>
@@ -8590,7 +8680,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C470" s="0" t="n">
         <v>19</v>
@@ -8601,7 +8691,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C471" s="0" t="n">
         <v>19</v>
@@ -8612,7 +8702,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C472" s="0" t="n">
         <v>19</v>
@@ -8623,7 +8713,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C473" s="0" t="n">
         <v>19</v>
@@ -8634,7 +8724,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C474" s="0" t="n">
         <v>19</v>
@@ -8645,7 +8735,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C475" s="0" t="n">
         <v>18</v>
@@ -8656,7 +8746,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C476" s="0" t="n">
         <v>18</v>
@@ -8667,7 +8757,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C477" s="0" t="n">
         <v>18</v>
@@ -8678,7 +8768,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C478" s="0" t="n">
         <v>18</v>
@@ -8689,7 +8779,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C479" s="0" t="n">
         <v>18</v>
@@ -8700,7 +8790,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C480" s="0" t="n">
         <v>18</v>
@@ -8711,7 +8801,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C481" s="0" t="n">
         <v>18</v>
@@ -8722,7 +8812,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C482" s="0" t="n">
         <v>18</v>
@@ -8733,7 +8823,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C483" s="0" t="n">
         <v>18</v>
@@ -8744,7 +8834,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C484" s="0" t="n">
         <v>18</v>
@@ -8755,7 +8845,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C485" s="0" t="n">
         <v>18</v>
@@ -8766,7 +8856,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C486" s="0" t="n">
         <v>18</v>
@@ -8777,7 +8867,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C487" s="0" t="n">
         <v>18</v>
@@ -8788,7 +8878,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C488" s="0" t="n">
         <v>18</v>
@@ -8799,7 +8889,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C489" s="0" t="n">
         <v>18</v>
@@ -8810,7 +8900,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C490" s="0" t="n">
         <v>18</v>
@@ -8821,7 +8911,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C491" s="0" t="n">
         <v>17</v>
@@ -8832,7 +8922,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C492" s="0" t="n">
         <v>17</v>
@@ -8843,7 +8933,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C493" s="0" t="n">
         <v>17</v>
@@ -8854,7 +8944,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C494" s="0" t="n">
         <v>17</v>
@@ -8865,7 +8955,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C495" s="0" t="n">
         <v>17</v>
@@ -8876,7 +8966,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C496" s="0" t="n">
         <v>17</v>
@@ -8887,7 +8977,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C497" s="0" t="n">
         <v>17</v>
@@ -8898,7 +8988,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C498" s="0" t="n">
         <v>17</v>
@@ -8909,7 +8999,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C499" s="0" t="n">
         <v>17</v>
@@ -8920,7 +9010,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C500" s="0" t="n">
         <v>17</v>
@@ -8931,7 +9021,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C501" s="0" t="n">
         <v>17</v>
@@ -8942,7 +9032,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C502" s="0" t="n">
         <v>17</v>
@@ -8953,7 +9043,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C503" s="0" t="n">
         <v>17</v>
@@ -8964,7 +9054,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C504" s="0" t="n">
         <v>17</v>
@@ -8975,7 +9065,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C505" s="0" t="n">
         <v>17</v>
@@ -8986,7 +9076,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C506" s="0" t="n">
         <v>17</v>
@@ -8997,7 +9087,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C507" s="0" t="n">
         <v>16</v>
@@ -9008,7 +9098,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C508" s="0" t="n">
         <v>16</v>
@@ -9019,7 +9109,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C509" s="0" t="n">
         <v>16</v>
@@ -9030,7 +9120,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C510" s="0" t="n">
         <v>16</v>
@@ -9041,7 +9131,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C511" s="0" t="n">
         <v>16</v>
@@ -9052,7 +9142,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C512" s="0" t="n">
         <v>16</v>
@@ -9063,7 +9153,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C513" s="0" t="n">
         <v>16</v>
@@ -9074,7 +9164,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C514" s="0" t="n">
         <v>16</v>
@@ -9085,7 +9175,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C515" s="0" t="n">
         <v>16</v>
@@ -9096,7 +9186,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C516" s="0" t="n">
         <v>15</v>
@@ -9107,7 +9197,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C517" s="0" t="n">
         <v>15</v>
@@ -9118,7 +9208,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C518" s="0" t="n">
         <v>15</v>
@@ -9129,7 +9219,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C519" s="0" t="n">
         <v>15</v>
@@ -9140,7 +9230,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C520" s="0" t="n">
         <v>15</v>
@@ -9151,7 +9241,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C521" s="0" t="n">
         <v>15</v>
@@ -9162,7 +9252,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C522" s="0" t="n">
         <v>15</v>
@@ -9173,7 +9263,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C523" s="0" t="n">
         <v>15</v>
@@ -9184,7 +9274,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C524" s="0" t="n">
         <v>15</v>
@@ -9195,7 +9285,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C525" s="0" t="n">
         <v>15</v>
@@ -9206,7 +9296,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C526" s="0" t="n">
         <v>15</v>
@@ -9217,7 +9307,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C527" s="0" t="n">
         <v>15</v>
@@ -9228,7 +9318,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C528" s="0" t="n">
         <v>15</v>
@@ -9239,7 +9329,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C529" s="0" t="n">
         <v>15</v>
@@ -9250,7 +9340,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C530" s="0" t="n">
         <v>15</v>
@@ -9261,7 +9351,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C531" s="0" t="n">
         <v>15</v>
@@ -9272,7 +9362,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C532" s="0" t="n">
         <v>15</v>
@@ -9283,7 +9373,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C533" s="0" t="n">
         <v>15</v>
@@ -9294,7 +9384,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C534" s="0" t="n">
         <v>15</v>
@@ -9305,7 +9395,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C535" s="0" t="n">
         <v>14</v>
@@ -9316,7 +9406,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C536" s="0" t="n">
         <v>14</v>
@@ -9327,7 +9417,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C537" s="0" t="n">
         <v>14</v>
@@ -9338,7 +9428,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C538" s="0" t="n">
         <v>14</v>
@@ -9349,7 +9439,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C539" s="0" t="n">
         <v>14</v>
@@ -9360,7 +9450,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C540" s="0" t="n">
         <v>14</v>
@@ -9371,7 +9461,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C541" s="0" t="n">
         <v>14</v>
@@ -9382,7 +9472,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C542" s="0" t="n">
         <v>14</v>
@@ -9393,7 +9483,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C543" s="0" t="n">
         <v>14</v>
@@ -9404,7 +9494,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C544" s="0" t="n">
         <v>14</v>
@@ -9415,7 +9505,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C545" s="0" t="n">
         <v>14</v>
@@ -9426,7 +9516,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C546" s="0" t="n">
         <v>14</v>
@@ -9437,7 +9527,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C547" s="0" t="n">
         <v>14</v>
@@ -9448,7 +9538,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C548" s="0" t="n">
         <v>14</v>
@@ -9459,7 +9549,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C549" s="0" t="n">
         <v>14</v>
@@ -9470,7 +9560,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C550" s="0" t="n">
         <v>14</v>
@@ -9481,7 +9571,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C551" s="0" t="n">
         <v>14</v>
@@ -9492,7 +9582,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C552" s="0" t="n">
         <v>14</v>
@@ -9503,7 +9593,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C553" s="0" t="n">
         <v>14</v>
@@ -9514,7 +9604,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C554" s="0" t="n">
         <v>14</v>
@@ -9525,7 +9615,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C555" s="0" t="n">
         <v>13</v>
@@ -9536,7 +9626,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C556" s="0" t="n">
         <v>13</v>
@@ -9547,7 +9637,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C557" s="0" t="n">
         <v>13</v>
@@ -9558,7 +9648,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C558" s="0" t="n">
         <v>13</v>
@@ -9569,7 +9659,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C559" s="0" t="n">
         <v>13</v>
@@ -9580,7 +9670,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C560" s="0" t="n">
         <v>13</v>
@@ -9591,7 +9681,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C561" s="0" t="n">
         <v>13</v>
@@ -9602,7 +9692,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C562" s="0" t="n">
         <v>13</v>
@@ -9613,7 +9703,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C563" s="0" t="n">
         <v>13</v>
@@ -9624,7 +9714,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C564" s="0" t="n">
         <v>13</v>
@@ -9635,7 +9725,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C565" s="0" t="n">
         <v>13</v>
@@ -9646,7 +9736,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C566" s="0" t="n">
         <v>13</v>
@@ -9657,7 +9747,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C567" s="0" t="n">
         <v>13</v>
@@ -9668,7 +9758,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C568" s="0" t="n">
         <v>13</v>
@@ -9679,7 +9769,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C569" s="0" t="n">
         <v>13</v>
@@ -9690,7 +9780,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C570" s="0" t="n">
         <v>13</v>
@@ -9701,7 +9791,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C571" s="0" t="n">
         <v>13</v>
@@ -9712,7 +9802,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C572" s="0" t="n">
         <v>12</v>
@@ -9723,7 +9813,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C573" s="0" t="n">
         <v>12</v>
@@ -9734,7 +9824,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C574" s="0" t="n">
         <v>12</v>
@@ -9745,7 +9835,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C575" s="0" t="n">
         <v>12</v>
@@ -9756,7 +9846,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C576" s="0" t="n">
         <v>12</v>
@@ -9767,7 +9857,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C577" s="0" t="n">
         <v>12</v>
@@ -9778,7 +9868,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C578" s="0" t="n">
         <v>12</v>
@@ -9789,7 +9879,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C579" s="0" t="n">
         <v>12</v>
@@ -9800,7 +9890,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C580" s="0" t="n">
         <v>12</v>
@@ -9811,7 +9901,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C581" s="0" t="n">
         <v>12</v>
@@ -9822,7 +9912,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C582" s="0" t="n">
         <v>12</v>
@@ -9833,7 +9923,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C583" s="0" t="n">
         <v>12</v>
@@ -9844,7 +9934,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C584" s="0" t="n">
         <v>12</v>
@@ -9855,7 +9945,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C585" s="0" t="n">
         <v>12</v>
@@ -9866,7 +9956,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C586" s="0" t="n">
         <v>12</v>
@@ -9877,7 +9967,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C587" s="0" t="n">
         <v>12</v>
@@ -9888,7 +9978,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C588" s="0" t="n">
         <v>12</v>
@@ -9899,7 +9989,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C589" s="0" t="n">
         <v>12</v>
@@ -9910,7 +10000,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C590" s="0" t="n">
         <v>12</v>
@@ -9921,7 +10011,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C591" s="0" t="n">
         <v>12</v>
@@ -9932,7 +10022,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C592" s="0" t="n">
         <v>11</v>
@@ -9943,7 +10033,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C593" s="0" t="n">
         <v>11</v>
@@ -9954,7 +10044,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C594" s="0" t="n">
         <v>11</v>
@@ -9965,7 +10055,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C595" s="0" t="n">
         <v>11</v>
@@ -9976,7 +10066,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C596" s="0" t="n">
         <v>11</v>
@@ -9987,7 +10077,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C597" s="0" t="n">
         <v>11</v>
@@ -9998,7 +10088,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C598" s="0" t="n">
         <v>11</v>
@@ -10009,7 +10099,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C599" s="0" t="n">
         <v>11</v>
@@ -10020,7 +10110,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C600" s="0" t="n">
         <v>11</v>
@@ -10031,7 +10121,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C601" s="0" t="n">
         <v>11</v>
@@ -10042,7 +10132,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C602" s="0" t="n">
         <v>11</v>
@@ -10053,7 +10143,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C603" s="0" t="n">
         <v>11</v>
@@ -10064,7 +10154,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C604" s="0" t="n">
         <v>11</v>
@@ -10075,7 +10165,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C605" s="0" t="n">
         <v>11</v>
@@ -10086,7 +10176,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C606" s="0" t="n">
         <v>11</v>
@@ -10097,7 +10187,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C607" s="0" t="n">
         <v>11</v>
@@ -10108,7 +10198,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C608" s="0" t="n">
         <v>11</v>
@@ -10119,7 +10209,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C609" s="0" t="n">
         <v>11</v>
@@ -10130,7 +10220,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C610" s="0" t="n">
         <v>11</v>
@@ -10141,7 +10231,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C611" s="0" t="n">
         <v>11</v>
@@ -10152,7 +10242,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C612" s="0" t="n">
         <v>10</v>
@@ -10163,7 +10253,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C613" s="0" t="n">
         <v>10</v>
@@ -10174,7 +10264,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C614" s="0" t="n">
         <v>10</v>
@@ -10185,7 +10275,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C615" s="0" t="n">
         <v>10</v>
@@ -10196,7 +10286,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C616" s="0" t="n">
         <v>10</v>
@@ -10207,7 +10297,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C617" s="0" t="n">
         <v>10</v>
@@ -10218,7 +10308,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C618" s="0" t="n">
         <v>10</v>
@@ -10229,7 +10319,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C619" s="0" t="n">
         <v>10</v>
@@ -10240,7 +10330,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C620" s="0" t="n">
         <v>10</v>
@@ -10251,7 +10341,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C621" s="0" t="n">
         <v>10</v>
@@ -10262,7 +10352,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C622" s="0" t="n">
         <v>10</v>
@@ -10273,7 +10363,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C623" s="0" t="n">
         <v>10</v>
@@ -10284,7 +10374,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C624" s="0" t="n">
         <v>10</v>
@@ -10295,7 +10385,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C625" s="0" t="n">
         <v>10</v>
@@ -10306,7 +10396,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C626" s="0" t="n">
         <v>10</v>
@@ -10317,7 +10407,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C627" s="0" t="n">
         <v>10</v>
@@ -10328,7 +10418,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C628" s="0" t="n">
         <v>10</v>
@@ -10339,7 +10429,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C629" s="0" t="n">
         <v>10</v>
@@ -10350,7 +10440,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C630" s="0" t="n">
         <v>9</v>
@@ -10361,7 +10451,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C631" s="0" t="n">
         <v>9</v>
@@ -10372,7 +10462,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C632" s="0" t="n">
         <v>9</v>
@@ -10383,7 +10473,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C633" s="0" t="n">
         <v>9</v>
@@ -10394,7 +10484,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C634" s="0" t="n">
         <v>9</v>
@@ -10405,7 +10495,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C635" s="0" t="n">
         <v>9</v>
@@ -10416,7 +10506,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C636" s="0" t="n">
         <v>9</v>
@@ -10427,7 +10517,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C637" s="0" t="n">
         <v>9</v>
@@ -10438,7 +10528,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C638" s="0" t="n">
         <v>9</v>
@@ -10449,7 +10539,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C639" s="0" t="n">
         <v>9</v>
@@ -10460,7 +10550,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C640" s="0" t="n">
         <v>9</v>
@@ -10471,7 +10561,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C641" s="0" t="n">
         <v>9</v>
@@ -10482,7 +10572,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C642" s="0" t="n">
         <v>9</v>
@@ -10493,7 +10583,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C643" s="0" t="n">
         <v>9</v>
@@ -10504,7 +10594,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C644" s="0" t="n">
         <v>9</v>
@@ -10515,7 +10605,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C645" s="0" t="n">
         <v>9</v>
@@ -10526,7 +10616,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C646" s="0" t="n">
         <v>9</v>
@@ -10537,7 +10627,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C647" s="0" t="n">
         <v>9</v>
@@ -10548,7 +10638,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C648" s="0" t="n">
         <v>9</v>
@@ -10559,7 +10649,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C649" s="0" t="n">
         <v>9</v>
@@ -10570,7 +10660,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C650" s="0" t="n">
         <v>9</v>
@@ -10581,7 +10671,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C651" s="0" t="n">
         <v>9</v>
@@ -10592,7 +10682,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C652" s="0" t="n">
         <v>9</v>
@@ -10603,7 +10693,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C653" s="0" t="n">
         <v>8</v>
@@ -10614,7 +10704,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C654" s="0" t="n">
         <v>8</v>
@@ -10625,7 +10715,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C655" s="0" t="n">
         <v>8</v>
@@ -10636,7 +10726,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C656" s="0" t="n">
         <v>8</v>
@@ -10647,7 +10737,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C657" s="0" t="n">
         <v>8</v>
@@ -10658,7 +10748,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C658" s="0" t="n">
         <v>8</v>
@@ -10669,7 +10759,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C659" s="0" t="n">
         <v>8</v>
@@ -10680,7 +10770,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C660" s="0" t="n">
         <v>8</v>
@@ -10691,7 +10781,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C661" s="0" t="n">
         <v>8</v>
@@ -10702,7 +10792,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C662" s="0" t="n">
         <v>8</v>
@@ -10713,7 +10803,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C663" s="0" t="n">
         <v>8</v>
@@ -10724,7 +10814,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C664" s="0" t="n">
         <v>8</v>
@@ -10735,7 +10825,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C665" s="0" t="n">
         <v>8</v>
@@ -10746,7 +10836,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C666" s="0" t="n">
         <v>8</v>
@@ -10757,7 +10847,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C667" s="0" t="n">
         <v>8</v>
@@ -10768,7 +10858,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C668" s="0" t="n">
         <v>8</v>
@@ -10779,7 +10869,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C669" s="0" t="n">
         <v>8</v>
@@ -10790,7 +10880,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C670" s="0" t="n">
         <v>8</v>
@@ -10801,7 +10891,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C671" s="0" t="n">
         <v>8</v>
@@ -10812,7 +10902,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C672" s="0" t="n">
         <v>8</v>
@@ -10823,7 +10913,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C673" s="0" t="n">
         <v>8</v>
@@ -10834,7 +10924,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C674" s="0" t="n">
         <v>8</v>
@@ -10845,7 +10935,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C675" s="0" t="n">
         <v>8</v>
@@ -10856,7 +10946,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C676" s="0" t="n">
         <v>8</v>
@@ -10867,7 +10957,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C677" s="0" t="n">
         <v>8</v>
@@ -10878,7 +10968,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C678" s="0" t="n">
         <v>8</v>
@@ -10889,7 +10979,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C679" s="0" t="n">
         <v>8</v>
@@ -10900,7 +10990,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C680" s="0" t="n">
         <v>8</v>
@@ -10911,7 +11001,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C681" s="0" t="n">
         <v>8</v>
@@ -10922,7 +11012,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C682" s="0" t="n">
         <v>8</v>
@@ -10933,7 +11023,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C683" s="0" t="n">
         <v>8</v>
@@ -10944,7 +11034,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C684" s="0" t="n">
         <v>7</v>
@@ -10955,7 +11045,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C685" s="0" t="n">
         <v>7</v>
@@ -10966,7 +11056,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C686" s="0" t="n">
         <v>7</v>
@@ -10977,7 +11067,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C687" s="0" t="n">
         <v>7</v>
@@ -10988,7 +11078,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C688" s="0" t="n">
         <v>7</v>
@@ -10999,7 +11089,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C689" s="0" t="n">
         <v>7</v>
@@ -11010,7 +11100,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C690" s="0" t="n">
         <v>7</v>
@@ -11021,7 +11111,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C691" s="0" t="n">
         <v>7</v>
@@ -11032,7 +11122,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="0" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C692" s="0" t="n">
         <v>7</v>
@@ -11043,7 +11133,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C693" s="0" t="n">
         <v>7</v>
@@ -11054,7 +11144,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C694" s="0" t="n">
         <v>7</v>
@@ -11065,7 +11155,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C695" s="0" t="n">
         <v>7</v>
@@ -11076,7 +11166,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C696" s="0" t="n">
         <v>7</v>
@@ -11087,7 +11177,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C697" s="0" t="n">
         <v>7</v>
@@ -11098,7 +11188,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C698" s="0" t="n">
         <v>7</v>
@@ -11109,7 +11199,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C699" s="0" t="n">
         <v>7</v>
@@ -11120,7 +11210,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C700" s="0" t="n">
         <v>7</v>
@@ -11131,7 +11221,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C701" s="0" t="n">
         <v>7</v>
@@ -11142,7 +11232,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="0" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C702" s="0" t="n">
         <v>7</v>
@@ -11153,7 +11243,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="0" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C703" s="0" t="n">
         <v>7</v>
@@ -11164,7 +11254,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="0" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C704" s="0" t="n">
         <v>7</v>
@@ -11175,7 +11265,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="0" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C705" s="0" t="n">
         <v>7</v>
@@ -11186,7 +11276,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="0" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C706" s="0" t="n">
         <v>7</v>
@@ -11197,7 +11287,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C707" s="0" t="n">
         <v>7</v>
@@ -11208,7 +11298,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C708" s="0" t="n">
         <v>7</v>
@@ -11219,7 +11309,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C709" s="0" t="n">
         <v>7</v>
@@ -11230,7 +11320,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C710" s="0" t="n">
         <v>7</v>
@@ -11241,7 +11331,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C711" s="0" t="n">
         <v>7</v>
@@ -11252,7 +11342,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C712" s="0" t="n">
         <v>7</v>
@@ -11263,7 +11353,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C713" s="0" t="n">
         <v>7</v>
@@ -11274,7 +11364,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C714" s="0" t="n">
         <v>7</v>
@@ -11285,7 +11375,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C715" s="0" t="n">
         <v>7</v>
@@ -11296,7 +11386,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C716" s="0" t="n">
         <v>7</v>
@@ -11307,7 +11397,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C717" s="0" t="n">
         <v>7</v>
@@ -11318,7 +11408,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C718" s="0" t="n">
         <v>7</v>
@@ -11329,7 +11419,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C719" s="0" t="n">
         <v>7</v>
@@ -11340,7 +11430,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="0" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C720" s="0" t="n">
         <v>7</v>
@@ -11351,7 +11441,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="0" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C721" s="0" t="n">
         <v>7</v>
@@ -11362,7 +11452,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="0" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C722" s="0" t="n">
         <v>7</v>
@@ -11373,7 +11463,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="0" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C723" s="0" t="n">
         <v>6</v>
@@ -11384,7 +11474,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="0" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C724" s="0" t="n">
         <v>6</v>
@@ -11395,7 +11485,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="0" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C725" s="0" t="n">
         <v>6</v>
@@ -11406,7 +11496,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C726" s="0" t="n">
         <v>6</v>
@@ -11417,7 +11507,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C727" s="0" t="n">
         <v>6</v>
@@ -11428,7 +11518,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C728" s="0" t="n">
         <v>6</v>
@@ -11439,7 +11529,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C729" s="0" t="n">
         <v>6</v>
@@ -11450,7 +11540,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C730" s="0" t="n">
         <v>6</v>
@@ -11461,7 +11551,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C731" s="0" t="n">
         <v>6</v>
@@ -11472,7 +11562,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C732" s="0" t="n">
         <v>6</v>
@@ -11483,7 +11573,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C733" s="0" t="n">
         <v>6</v>
@@ -11494,7 +11584,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C734" s="0" t="n">
         <v>6</v>
@@ -11505,7 +11595,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C735" s="0" t="n">
         <v>6</v>
@@ -11516,7 +11606,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C736" s="0" t="n">
         <v>6</v>
@@ -11527,7 +11617,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C737" s="0" t="n">
         <v>6</v>
@@ -11538,7 +11628,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C738" s="0" t="n">
         <v>6</v>
@@ -11549,7 +11639,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C739" s="0" t="n">
         <v>6</v>
@@ -11560,7 +11650,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C740" s="0" t="n">
         <v>6</v>
@@ -11571,7 +11661,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C741" s="0" t="n">
         <v>6</v>
@@ -11582,7 +11672,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C742" s="0" t="n">
         <v>6</v>
@@ -11593,7 +11683,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C743" s="0" t="n">
         <v>6</v>
@@ -11604,7 +11694,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C744" s="0" t="n">
         <v>6</v>
@@ -11615,7 +11705,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C745" s="0" t="n">
         <v>6</v>
@@ -11626,7 +11716,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C746" s="0" t="n">
         <v>6</v>
@@ -11637,7 +11727,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C747" s="0" t="n">
         <v>6</v>
@@ -11648,7 +11738,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C748" s="0" t="n">
         <v>6</v>
@@ -11659,7 +11749,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C749" s="0" t="n">
         <v>6</v>
@@ -11670,7 +11760,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C750" s="0" t="n">
         <v>6</v>
@@ -11681,7 +11771,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C751" s="0" t="n">
         <v>6</v>
@@ -11692,7 +11782,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C752" s="0" t="n">
         <v>6</v>
@@ -11703,7 +11793,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C753" s="0" t="n">
         <v>6</v>
@@ -11714,7 +11804,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C754" s="0" t="n">
         <v>6</v>
@@ -11725,7 +11815,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C755" s="0" t="n">
         <v>6</v>
@@ -11736,7 +11826,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C756" s="0" t="n">
         <v>6</v>
@@ -11747,7 +11837,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C757" s="0" t="n">
         <v>6</v>
@@ -11758,7 +11848,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C758" s="0" t="n">
         <v>6</v>
@@ -11769,7 +11859,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C759" s="0" t="n">
         <v>6</v>
@@ -11780,7 +11870,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C760" s="0" t="n">
         <v>6</v>
@@ -11791,7 +11881,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C761" s="0" t="n">
         <v>6</v>
@@ -11802,7 +11892,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C762" s="0" t="n">
         <v>6</v>
@@ -11813,7 +11903,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C763" s="0" t="n">
         <v>6</v>
@@ -11824,7 +11914,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C764" s="0" t="n">
         <v>6</v>
@@ -11835,7 +11925,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C765" s="0" t="n">
         <v>6</v>
@@ -11846,7 +11936,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C766" s="0" t="n">
         <v>6</v>
@@ -11857,7 +11947,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C767" s="0" t="n">
         <v>6</v>
@@ -11868,7 +11958,7 @@
         <v>766</v>
       </c>
       <c r="B768" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C768" s="0" t="n">
         <v>6</v>
@@ -11879,7 +11969,7 @@
         <v>767</v>
       </c>
       <c r="B769" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C769" s="0" t="n">
         <v>6</v>
@@ -11890,7 +11980,7 @@
         <v>768</v>
       </c>
       <c r="B770" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C770" s="0" t="n">
         <v>5</v>
@@ -11901,7 +11991,7 @@
         <v>769</v>
       </c>
       <c r="B771" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C771" s="0" t="n">
         <v>5</v>
@@ -11912,7 +12002,7 @@
         <v>770</v>
       </c>
       <c r="B772" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C772" s="0" t="n">
         <v>5</v>
@@ -11923,7 +12013,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C773" s="0" t="n">
         <v>5</v>
@@ -11934,7 +12024,7 @@
         <v>772</v>
       </c>
       <c r="B774" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C774" s="0" t="n">
         <v>5</v>
@@ -11945,7 +12035,7 @@
         <v>773</v>
       </c>
       <c r="B775" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C775" s="0" t="n">
         <v>5</v>
@@ -11956,7 +12046,7 @@
         <v>774</v>
       </c>
       <c r="B776" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C776" s="0" t="n">
         <v>5</v>
@@ -11967,7 +12057,7 @@
         <v>775</v>
       </c>
       <c r="B777" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C777" s="0" t="n">
         <v>5</v>
@@ -11978,7 +12068,7 @@
         <v>776</v>
       </c>
       <c r="B778" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C778" s="0" t="n">
         <v>5</v>
@@ -11989,7 +12079,7 @@
         <v>777</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C779" s="0" t="n">
         <v>5</v>
@@ -12000,7 +12090,7 @@
         <v>778</v>
       </c>
       <c r="B780" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C780" s="0" t="n">
         <v>5</v>
@@ -12011,7 +12101,7 @@
         <v>779</v>
       </c>
       <c r="B781" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C781" s="0" t="n">
         <v>5</v>
@@ -12022,7 +12112,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C782" s="0" t="n">
         <v>5</v>
@@ -12033,7 +12123,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C783" s="0" t="n">
         <v>5</v>
@@ -12044,7 +12134,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C784" s="0" t="n">
         <v>5</v>
@@ -12055,7 +12145,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C785" s="0" t="n">
         <v>5</v>
@@ -12066,7 +12156,7 @@
         <v>784</v>
       </c>
       <c r="B786" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C786" s="0" t="n">
         <v>5</v>
@@ -12077,7 +12167,7 @@
         <v>785</v>
       </c>
       <c r="B787" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C787" s="0" t="n">
         <v>5</v>
@@ -12088,7 +12178,7 @@
         <v>786</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C788" s="0" t="n">
         <v>5</v>
@@ -12099,7 +12189,7 @@
         <v>787</v>
       </c>
       <c r="B789" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C789" s="0" t="n">
         <v>5</v>
@@ -12110,7 +12200,7 @@
         <v>788</v>
       </c>
       <c r="B790" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C790" s="0" t="n">
         <v>5</v>
@@ -12121,7 +12211,7 @@
         <v>789</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C791" s="0" t="n">
         <v>5</v>
@@ -12132,7 +12222,7 @@
         <v>790</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C792" s="0" t="n">
         <v>5</v>
@@ -12143,7 +12233,7 @@
         <v>791</v>
       </c>
       <c r="B793" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C793" s="0" t="n">
         <v>5</v>
@@ -12154,7 +12244,7 @@
         <v>792</v>
       </c>
       <c r="B794" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C794" s="0" t="n">
         <v>5</v>
@@ -12165,7 +12255,7 @@
         <v>793</v>
       </c>
       <c r="B795" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C795" s="0" t="n">
         <v>5</v>
@@ -12176,7 +12266,7 @@
         <v>794</v>
       </c>
       <c r="B796" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C796" s="0" t="n">
         <v>5</v>
@@ -12187,7 +12277,7 @@
         <v>795</v>
       </c>
       <c r="B797" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C797" s="0" t="n">
         <v>5</v>
@@ -12198,7 +12288,7 @@
         <v>796</v>
       </c>
       <c r="B798" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C798" s="0" t="n">
         <v>5</v>
@@ -12209,7 +12299,7 @@
         <v>797</v>
       </c>
       <c r="B799" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C799" s="0" t="n">
         <v>5</v>
@@ -12220,7 +12310,7 @@
         <v>798</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C800" s="0" t="n">
         <v>5</v>
@@ -12231,7 +12321,7 @@
         <v>799</v>
       </c>
       <c r="B801" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C801" s="0" t="n">
         <v>5</v>
@@ -12242,7 +12332,7 @@
         <v>800</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C802" s="0" t="n">
         <v>5</v>
@@ -12253,7 +12343,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C803" s="0" t="n">
         <v>5</v>
@@ -12264,7 +12354,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C804" s="0" t="n">
         <v>5</v>
@@ -12275,7 +12365,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C805" s="0" t="n">
         <v>5</v>
@@ -12286,7 +12376,7 @@
         <v>804</v>
       </c>
       <c r="B806" s="0" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C806" s="0" t="n">
         <v>5</v>
@@ -12297,7 +12387,7 @@
         <v>805</v>
       </c>
       <c r="B807" s="0" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C807" s="0" t="n">
         <v>5</v>
@@ -12308,7 +12398,7 @@
         <v>806</v>
       </c>
       <c r="B808" s="0" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C808" s="0" t="n">
         <v>5</v>
@@ -12319,7 +12409,7 @@
         <v>807</v>
       </c>
       <c r="B809" s="0" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C809" s="0" t="n">
         <v>5</v>
@@ -12330,7 +12420,7 @@
         <v>808</v>
       </c>
       <c r="B810" s="0" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C810" s="0" t="n">
         <v>5</v>
@@ -12341,7 +12431,7 @@
         <v>809</v>
       </c>
       <c r="B811" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C811" s="0" t="n">
         <v>5</v>
@@ -12352,7 +12442,7 @@
         <v>810</v>
       </c>
       <c r="B812" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C812" s="0" t="n">
         <v>5</v>
@@ -12363,7 +12453,7 @@
         <v>811</v>
       </c>
       <c r="B813" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C813" s="0" t="n">
         <v>5</v>
@@ -12374,7 +12464,7 @@
         <v>812</v>
       </c>
       <c r="B814" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C814" s="0" t="n">
         <v>5</v>
@@ -12385,7 +12475,7 @@
         <v>813</v>
       </c>
       <c r="B815" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C815" s="0" t="n">
         <v>5</v>
@@ -12396,7 +12486,7 @@
         <v>814</v>
       </c>
       <c r="B816" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C816" s="0" t="n">
         <v>5</v>
@@ -12407,7 +12497,7 @@
         <v>815</v>
       </c>
       <c r="B817" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C817" s="0" t="n">
         <v>5</v>
@@ -12418,7 +12508,7 @@
         <v>816</v>
       </c>
       <c r="B818" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C818" s="0" t="n">
         <v>5</v>
@@ -12429,7 +12519,7 @@
         <v>817</v>
       </c>
       <c r="B819" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C819" s="0" t="n">
         <v>5</v>
@@ -12440,7 +12530,7 @@
         <v>818</v>
       </c>
       <c r="B820" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C820" s="0" t="n">
         <v>5</v>
@@ -12451,7 +12541,7 @@
         <v>819</v>
       </c>
       <c r="B821" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C821" s="0" t="n">
         <v>5</v>
@@ -12462,7 +12552,7 @@
         <v>820</v>
       </c>
       <c r="B822" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C822" s="0" t="n">
         <v>5</v>
@@ -12473,7 +12563,7 @@
         <v>821</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C823" s="0" t="n">
         <v>5</v>
@@ -12484,7 +12574,7 @@
         <v>822</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C824" s="0" t="n">
         <v>4</v>
@@ -12495,7 +12585,7 @@
         <v>823</v>
       </c>
       <c r="B825" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C825" s="0" t="n">
         <v>4</v>
@@ -12506,7 +12596,7 @@
         <v>824</v>
       </c>
       <c r="B826" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C826" s="0" t="n">
         <v>4</v>
@@ -12517,7 +12607,7 @@
         <v>825</v>
       </c>
       <c r="B827" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C827" s="0" t="n">
         <v>4</v>
@@ -12528,7 +12618,7 @@
         <v>826</v>
       </c>
       <c r="B828" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C828" s="0" t="n">
         <v>4</v>
@@ -12539,7 +12629,7 @@
         <v>827</v>
       </c>
       <c r="B829" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C829" s="0" t="n">
         <v>4</v>
@@ -12550,7 +12640,7 @@
         <v>828</v>
       </c>
       <c r="B830" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C830" s="0" t="n">
         <v>4</v>
@@ -12561,7 +12651,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C831" s="0" t="n">
         <v>4</v>
@@ -12572,7 +12662,7 @@
         <v>830</v>
       </c>
       <c r="B832" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C832" s="0" t="n">
         <v>4</v>
@@ -12583,7 +12673,7 @@
         <v>831</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C833" s="0" t="n">
         <v>4</v>
@@ -12594,7 +12684,7 @@
         <v>832</v>
       </c>
       <c r="B834" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C834" s="0" t="n">
         <v>4</v>
@@ -12605,7 +12695,7 @@
         <v>833</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C835" s="0" t="n">
         <v>4</v>
@@ -12616,7 +12706,7 @@
         <v>834</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C836" s="0" t="n">
         <v>4</v>
@@ -12627,7 +12717,7 @@
         <v>835</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C837" s="0" t="n">
         <v>4</v>
@@ -12638,7 +12728,7 @@
         <v>836</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C838" s="0" t="n">
         <v>4</v>
@@ -12649,7 +12739,7 @@
         <v>837</v>
       </c>
       <c r="B839" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C839" s="0" t="n">
         <v>4</v>
@@ -12660,7 +12750,7 @@
         <v>838</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C840" s="0" t="n">
         <v>4</v>
@@ -12671,7 +12761,7 @@
         <v>839</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C841" s="0" t="n">
         <v>4</v>
@@ -12682,7 +12772,7 @@
         <v>840</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C842" s="0" t="n">
         <v>4</v>
@@ -12693,7 +12783,7 @@
         <v>841</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C843" s="0" t="n">
         <v>4</v>
@@ -12704,7 +12794,7 @@
         <v>842</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C844" s="0" t="n">
         <v>4</v>
@@ -12715,7 +12805,7 @@
         <v>843</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C845" s="0" t="n">
         <v>4</v>
@@ -12726,7 +12816,7 @@
         <v>844</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C846" s="0" t="n">
         <v>4</v>
@@ -12737,7 +12827,7 @@
         <v>845</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C847" s="0" t="n">
         <v>4</v>
@@ -12748,7 +12838,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C848" s="0" t="n">
         <v>4</v>
@@ -12759,7 +12849,7 @@
         <v>847</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C849" s="0" t="n">
         <v>4</v>
@@ -12770,7 +12860,7 @@
         <v>848</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C850" s="0" t="n">
         <v>4</v>
@@ -12781,7 +12871,7 @@
         <v>849</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C851" s="0" t="n">
         <v>4</v>
@@ -12792,7 +12882,7 @@
         <v>850</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C852" s="0" t="n">
         <v>4</v>
@@ -12803,7 +12893,7 @@
         <v>851</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C853" s="0" t="n">
         <v>4</v>
@@ -12814,7 +12904,7 @@
         <v>852</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C854" s="0" t="n">
         <v>4</v>
@@ -12825,7 +12915,7 @@
         <v>853</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C855" s="0" t="n">
         <v>4</v>
@@ -12836,7 +12926,7 @@
         <v>854</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C856" s="0" t="n">
         <v>4</v>
@@ -12847,7 +12937,7 @@
         <v>855</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C857" s="0" t="n">
         <v>4</v>
@@ -12858,7 +12948,7 @@
         <v>856</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C858" s="0" t="n">
         <v>4</v>
@@ -12869,7 +12959,7 @@
         <v>857</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C859" s="0" t="n">
         <v>4</v>
@@ -12880,7 +12970,7 @@
         <v>858</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C860" s="0" t="n">
         <v>4</v>
@@ -12891,7 +12981,7 @@
         <v>859</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C861" s="0" t="n">
         <v>3</v>
@@ -12902,7 +12992,7 @@
         <v>860</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C862" s="0" t="n">
         <v>3</v>
@@ -12913,7 +13003,7 @@
         <v>861</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C863" s="0" t="n">
         <v>3</v>
@@ -12924,7 +13014,7 @@
         <v>862</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C864" s="0" t="n">
         <v>3</v>
@@ -12935,7 +13025,7 @@
         <v>863</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C865" s="0" t="n">
         <v>3</v>
@@ -12946,7 +13036,7 @@
         <v>864</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C866" s="0" t="n">
         <v>3</v>
@@ -12957,7 +13047,7 @@
         <v>865</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C867" s="0" t="n">
         <v>3</v>
@@ -12968,7 +13058,7 @@
         <v>866</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C868" s="0" t="n">
         <v>3</v>
@@ -12979,7 +13069,7 @@
         <v>867</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C869" s="0" t="n">
         <v>3</v>
@@ -12990,7 +13080,7 @@
         <v>868</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C870" s="0" t="n">
         <v>3</v>
@@ -13001,7 +13091,7 @@
         <v>869</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C871" s="0" t="n">
         <v>3</v>
@@ -13012,7 +13102,7 @@
         <v>870</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C872" s="0" t="n">
         <v>3</v>
@@ -13023,7 +13113,7 @@
         <v>871</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C873" s="0" t="n">
         <v>3</v>
@@ -13034,7 +13124,7 @@
         <v>872</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C874" s="0" t="n">
         <v>3</v>
@@ -13045,7 +13135,7 @@
         <v>873</v>
       </c>
       <c r="B875" s="0" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C875" s="0" t="n">
         <v>3</v>
@@ -13056,7 +13146,7 @@
         <v>874</v>
       </c>
       <c r="B876" s="0" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C876" s="0" t="n">
         <v>3</v>
@@ -13067,7 +13157,7 @@
         <v>875</v>
       </c>
       <c r="B877" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C877" s="0" t="n">
         <v>3</v>
@@ -13078,7 +13168,7 @@
         <v>876</v>
       </c>
       <c r="B878" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C878" s="0" t="n">
         <v>3</v>
@@ -13089,7 +13179,7 @@
         <v>877</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C879" s="0" t="n">
         <v>3</v>
@@ -13100,7 +13190,7 @@
         <v>878</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C880" s="0" t="n">
         <v>3</v>
@@ -13111,7 +13201,7 @@
         <v>879</v>
       </c>
       <c r="B881" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C881" s="0" t="n">
         <v>3</v>
@@ -13122,7 +13212,7 @@
         <v>880</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C882" s="0" t="n">
         <v>3</v>
@@ -13133,7 +13223,7 @@
         <v>881</v>
       </c>
       <c r="B883" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C883" s="0" t="n">
         <v>3</v>
@@ -13144,7 +13234,7 @@
         <v>882</v>
       </c>
       <c r="B884" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C884" s="0" t="n">
         <v>3</v>
@@ -13155,7 +13245,7 @@
         <v>883</v>
       </c>
       <c r="B885" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C885" s="0" t="n">
         <v>3</v>
@@ -13166,7 +13256,7 @@
         <v>884</v>
       </c>
       <c r="B886" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C886" s="0" t="n">
         <v>3</v>
@@ -13177,7 +13267,7 @@
         <v>885</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C887" s="0" t="n">
         <v>3</v>
@@ -13188,7 +13278,7 @@
         <v>886</v>
       </c>
       <c r="B888" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C888" s="0" t="n">
         <v>3</v>
@@ -13199,7 +13289,7 @@
         <v>887</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C889" s="0" t="n">
         <v>3</v>
@@ -13210,7 +13300,7 @@
         <v>888</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C890" s="0" t="n">
         <v>3</v>
@@ -13221,7 +13311,7 @@
         <v>889</v>
       </c>
       <c r="B891" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C891" s="0" t="n">
         <v>3</v>
@@ -13232,7 +13322,7 @@
         <v>890</v>
       </c>
       <c r="B892" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C892" s="0" t="n">
         <v>3</v>
@@ -13243,7 +13333,7 @@
         <v>891</v>
       </c>
       <c r="B893" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C893" s="0" t="n">
         <v>3</v>
@@ -13254,7 +13344,7 @@
         <v>892</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C894" s="0" t="n">
         <v>3</v>
@@ -13265,7 +13355,7 @@
         <v>893</v>
       </c>
       <c r="B895" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C895" s="0" t="n">
         <v>3</v>
@@ -13276,7 +13366,7 @@
         <v>894</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C896" s="0" t="n">
         <v>3</v>
@@ -13287,7 +13377,7 @@
         <v>895</v>
       </c>
       <c r="B897" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C897" s="0" t="n">
         <v>3</v>
@@ -13298,7 +13388,7 @@
         <v>896</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C898" s="0" t="n">
         <v>2</v>
@@ -13309,7 +13399,7 @@
         <v>897</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C899" s="0" t="n">
         <v>2</v>
@@ -13320,7 +13410,7 @@
         <v>898</v>
       </c>
       <c r="B900" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C900" s="0" t="n">
         <v>2</v>
@@ -13331,7 +13421,7 @@
         <v>899</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C901" s="0" t="n">
         <v>2</v>
@@ -13342,7 +13432,7 @@
         <v>900</v>
       </c>
       <c r="B902" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C902" s="0" t="n">
         <v>2</v>
@@ -13353,7 +13443,7 @@
         <v>901</v>
       </c>
       <c r="B903" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C903" s="0" t="n">
         <v>2</v>
@@ -13364,7 +13454,7 @@
         <v>902</v>
       </c>
       <c r="B904" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C904" s="0" t="n">
         <v>2</v>
@@ -13375,7 +13465,7 @@
         <v>903</v>
       </c>
       <c r="B905" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C905" s="0" t="n">
         <v>2</v>
@@ -13386,7 +13476,7 @@
         <v>904</v>
       </c>
       <c r="B906" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C906" s="0" t="n">
         <v>2</v>
@@ -13397,7 +13487,7 @@
         <v>905</v>
       </c>
       <c r="B907" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C907" s="0" t="n">
         <v>2</v>
@@ -13408,7 +13498,7 @@
         <v>906</v>
       </c>
       <c r="B908" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C908" s="0" t="n">
         <v>2</v>
@@ -13419,7 +13509,7 @@
         <v>907</v>
       </c>
       <c r="B909" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C909" s="0" t="n">
         <v>2</v>
@@ -13430,7 +13520,7 @@
         <v>908</v>
       </c>
       <c r="B910" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C910" s="0" t="n">
         <v>2</v>
@@ -13441,7 +13531,7 @@
         <v>909</v>
       </c>
       <c r="B911" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C911" s="0" t="n">
         <v>2</v>
@@ -13452,7 +13542,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C912" s="0" t="n">
         <v>2</v>
@@ -13463,7 +13553,7 @@
         <v>911</v>
       </c>
       <c r="B913" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C913" s="0" t="n">
         <v>2</v>
@@ -13474,7 +13564,7 @@
         <v>912</v>
       </c>
       <c r="B914" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C914" s="0" t="n">
         <v>2</v>
@@ -13485,7 +13575,7 @@
         <v>913</v>
       </c>
       <c r="B915" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C915" s="0" t="n">
         <v>2</v>
@@ -13496,7 +13586,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C916" s="0" t="n">
         <v>2</v>
@@ -13507,7 +13597,7 @@
         <v>915</v>
       </c>
       <c r="B917" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C917" s="0" t="n">
         <v>2</v>
@@ -13518,7 +13608,7 @@
         <v>916</v>
       </c>
       <c r="B918" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C918" s="0" t="n">
         <v>2</v>
@@ -13529,7 +13619,7 @@
         <v>917</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C919" s="0" t="n">
         <v>2</v>
@@ -13540,7 +13630,7 @@
         <v>918</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C920" s="0" t="n">
         <v>2</v>
@@ -13551,7 +13641,7 @@
         <v>919</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C921" s="0" t="n">
         <v>2</v>
@@ -13562,7 +13652,7 @@
         <v>920</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C922" s="0" t="n">
         <v>2</v>
@@ -13573,7 +13663,7 @@
         <v>921</v>
       </c>
       <c r="B923" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C923" s="0" t="n">
         <v>2</v>
@@ -13584,7 +13674,7 @@
         <v>922</v>
       </c>
       <c r="B924" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C924" s="0" t="n">
         <v>2</v>
@@ -13595,7 +13685,7 @@
         <v>923</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C925" s="0" t="n">
         <v>2</v>
@@ -13606,7 +13696,7 @@
         <v>924</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C926" s="0" t="n">
         <v>2</v>
@@ -13617,7 +13707,7 @@
         <v>925</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C927" s="0" t="n">
         <v>2</v>
@@ -13628,7 +13718,7 @@
         <v>926</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C928" s="0" t="n">
         <v>2</v>
@@ -13639,7 +13729,7 @@
         <v>927</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C929" s="0" t="n">
         <v>2</v>
@@ -13650,7 +13740,7 @@
         <v>928</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C930" s="0" t="n">
         <v>2</v>
@@ -13661,7 +13751,7 @@
         <v>929</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C931" s="0" t="n">
         <v>2</v>
@@ -13672,7 +13762,7 @@
         <v>930</v>
       </c>
       <c r="B932" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C932" s="0" t="n">
         <v>2</v>
@@ -13683,7 +13773,7 @@
         <v>931</v>
       </c>
       <c r="B933" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C933" s="0" t="n">
         <v>2</v>
@@ -13694,7 +13784,7 @@
         <v>932</v>
       </c>
       <c r="B934" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C934" s="0" t="n">
         <v>2</v>
@@ -13705,7 +13795,7 @@
         <v>933</v>
       </c>
       <c r="B935" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C935" s="0" t="n">
         <v>2</v>
@@ -13716,7 +13806,7 @@
         <v>934</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C936" s="0" t="n">
         <v>2</v>
@@ -13727,7 +13817,7 @@
         <v>935</v>
       </c>
       <c r="B937" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C937" s="0" t="n">
         <v>2</v>
@@ -13738,7 +13828,7 @@
         <v>936</v>
       </c>
       <c r="B938" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C938" s="0" t="n">
         <v>2</v>
@@ -13749,7 +13839,7 @@
         <v>937</v>
       </c>
       <c r="B939" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C939" s="0" t="n">
         <v>2</v>
@@ -13760,7 +13850,7 @@
         <v>938</v>
       </c>
       <c r="B940" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C940" s="0" t="n">
         <v>2</v>
@@ -13771,7 +13861,7 @@
         <v>939</v>
       </c>
       <c r="B941" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C941" s="0" t="n">
         <v>2</v>
@@ -13782,7 +13872,7 @@
         <v>940</v>
       </c>
       <c r="B942" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C942" s="0" t="n">
         <v>2</v>
@@ -13793,7 +13883,7 @@
         <v>941</v>
       </c>
       <c r="B943" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C943" s="0" t="n">
         <v>1</v>
@@ -13804,7 +13894,7 @@
         <v>942</v>
       </c>
       <c r="B944" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C944" s="0" t="n">
         <v>1</v>
@@ -13815,7 +13905,7 @@
         <v>943</v>
       </c>
       <c r="B945" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C945" s="0" t="n">
         <v>1</v>
@@ -13826,7 +13916,7 @@
         <v>944</v>
       </c>
       <c r="B946" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C946" s="0" t="n">
         <v>1</v>
@@ -13837,7 +13927,7 @@
         <v>945</v>
       </c>
       <c r="B947" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C947" s="0" t="n">
         <v>1</v>
@@ -13848,7 +13938,7 @@
         <v>946</v>
       </c>
       <c r="B948" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C948" s="0" t="n">
         <v>1</v>
@@ -13859,7 +13949,7 @@
         <v>947</v>
       </c>
       <c r="B949" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C949" s="0" t="n">
         <v>1</v>
@@ -13870,7 +13960,7 @@
         <v>948</v>
       </c>
       <c r="B950" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C950" s="0" t="n">
         <v>1</v>
@@ -13881,7 +13971,7 @@
         <v>949</v>
       </c>
       <c r="B951" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C951" s="0" t="n">
         <v>1</v>
@@ -13892,7 +13982,7 @@
         <v>950</v>
       </c>
       <c r="B952" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C952" s="0" t="n">
         <v>1</v>
@@ -13903,7 +13993,7 @@
         <v>951</v>
       </c>
       <c r="B953" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C953" s="0" t="n">
         <v>1</v>
@@ -13914,7 +14004,7 @@
         <v>952</v>
       </c>
       <c r="B954" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C954" s="0" t="n">
         <v>1</v>
@@ -13925,7 +14015,7 @@
         <v>953</v>
       </c>
       <c r="B955" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C955" s="0" t="n">
         <v>1</v>
@@ -13936,7 +14026,7 @@
         <v>954</v>
       </c>
       <c r="B956" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C956" s="0" t="n">
         <v>1</v>
@@ -13947,7 +14037,7 @@
         <v>955</v>
       </c>
       <c r="B957" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C957" s="0" t="n">
         <v>1</v>
@@ -13958,7 +14048,7 @@
         <v>956</v>
       </c>
       <c r="B958" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C958" s="0" t="n">
         <v>1</v>
@@ -13969,7 +14059,7 @@
         <v>957</v>
       </c>
       <c r="B959" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C959" s="0" t="n">
         <v>1</v>
@@ -13980,7 +14070,7 @@
         <v>958</v>
       </c>
       <c r="B960" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C960" s="0" t="n">
         <v>1</v>
@@ -13991,7 +14081,7 @@
         <v>959</v>
       </c>
       <c r="B961" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C961" s="0" t="n">
         <v>1</v>
@@ -14002,7 +14092,7 @@
         <v>960</v>
       </c>
       <c r="B962" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C962" s="0" t="n">
         <v>1</v>
@@ -14013,7 +14103,7 @@
         <v>961</v>
       </c>
       <c r="B963" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C963" s="0" t="n">
         <v>1</v>
@@ -14024,7 +14114,7 @@
         <v>962</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C964" s="0" t="n">
         <v>1</v>
@@ -14035,7 +14125,7 @@
         <v>963</v>
       </c>
       <c r="B965" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C965" s="0" t="n">
         <v>1</v>
@@ -14046,7 +14136,7 @@
         <v>964</v>
       </c>
       <c r="B966" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C966" s="0" t="n">
         <v>1</v>
@@ -14057,7 +14147,7 @@
         <v>965</v>
       </c>
       <c r="B967" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C967" s="0" t="n">
         <v>1</v>
@@ -14068,7 +14158,7 @@
         <v>966</v>
       </c>
       <c r="B968" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C968" s="0" t="n">
         <v>1</v>
@@ -14079,7 +14169,7 @@
         <v>967</v>
       </c>
       <c r="B969" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C969" s="0" t="n">
         <v>1</v>
@@ -14090,7 +14180,7 @@
         <v>968</v>
       </c>
       <c r="B970" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C970" s="0" t="n">
         <v>1</v>
@@ -14101,7 +14191,7 @@
         <v>969</v>
       </c>
       <c r="B971" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C971" s="0" t="n">
         <v>1</v>
@@ -14112,7 +14202,7 @@
         <v>970</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C972" s="0" t="n">
         <v>1</v>
@@ -14123,7 +14213,7 @@
         <v>971</v>
       </c>
       <c r="B973" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C973" s="0" t="n">
         <v>1</v>
@@ -14134,7 +14224,7 @@
         <v>972</v>
       </c>
       <c r="B974" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C974" s="0" t="n">
         <v>1</v>
@@ -14145,7 +14235,7 @@
         <v>973</v>
       </c>
       <c r="B975" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C975" s="0" t="n">
         <v>1</v>
@@ -14156,7 +14246,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C976" s="0" t="n">
         <v>1</v>
@@ -14167,7 +14257,7 @@
         <v>975</v>
       </c>
       <c r="B977" s="0" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C977" s="0" t="n">
         <v>1</v>
@@ -14178,7 +14268,7 @@
         <v>976</v>
       </c>
       <c r="B978" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C978" s="0" t="n">
         <v>1</v>
@@ -14189,7 +14279,7 @@
         <v>977</v>
       </c>
       <c r="B979" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C979" s="0" t="n">
         <v>1</v>
@@ -14200,7 +14290,7 @@
         <v>978</v>
       </c>
       <c r="B980" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C980" s="0" t="n">
         <v>1</v>
@@ -14211,7 +14301,7 @@
         <v>979</v>
       </c>
       <c r="B981" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C981" s="0" t="n">
         <v>1</v>
@@ -14222,7 +14312,7 @@
         <v>980</v>
       </c>
       <c r="B982" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C982" s="0" t="n">
         <v>1</v>
@@ -14233,7 +14323,7 @@
         <v>981</v>
       </c>
       <c r="B983" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C983" s="0" t="n">
         <v>1</v>
@@ -14244,7 +14334,7 @@
         <v>982</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C984" s="0" t="n">
         <v>1</v>
@@ -14255,7 +14345,7 @@
         <v>983</v>
       </c>
       <c r="B985" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C985" s="0" t="n">
         <v>1</v>
@@ -14266,7 +14356,7 @@
         <v>984</v>
       </c>
       <c r="B986" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C986" s="0" t="n">
         <v>1</v>
@@ -14277,7 +14367,7 @@
         <v>985</v>
       </c>
       <c r="B987" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C987" s="0" t="n">
         <v>1</v>
@@ -14288,7 +14378,7 @@
         <v>986</v>
       </c>
       <c r="B988" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C988" s="0" t="n">
         <v>1</v>
@@ -14299,7 +14389,7 @@
         <v>987</v>
       </c>
       <c r="B989" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C989" s="0" t="n">
         <v>1</v>
@@ -14310,7 +14400,7 @@
         <v>988</v>
       </c>
       <c r="B990" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C990" s="0" t="n">
         <v>1</v>
@@ -14321,7 +14411,7 @@
         <v>989</v>
       </c>
       <c r="B991" s="0" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C991" s="0" t="n">
         <v>1</v>
@@ -14332,7 +14422,7 @@
         <v>990</v>
       </c>
       <c r="B992" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C992" s="0" t="n">
         <v>1</v>
@@ -14343,7 +14433,7 @@
         <v>991</v>
       </c>
       <c r="B993" s="0" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C993" s="0" t="n">
         <v>1</v>
@@ -14354,7 +14444,7 @@
         <v>992</v>
       </c>
       <c r="B994" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C994" s="0" t="n">
         <v>1</v>
@@ -14365,7 +14455,7 @@
         <v>993</v>
       </c>
       <c r="B995" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C995" s="0" t="n">
         <v>1</v>
@@ -14376,7 +14466,7 @@
         <v>994</v>
       </c>
       <c r="B996" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C996" s="0" t="n">
         <v>1</v>
@@ -14387,7 +14477,7 @@
         <v>995</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C997" s="0" t="n">
         <v>1</v>
@@ -14398,7 +14488,7 @@
         <v>996</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C998" s="0" t="n">
         <v>1</v>
@@ -14409,7 +14499,7 @@
         <v>997</v>
       </c>
       <c r="B999" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C999" s="0" t="n">
         <v>1</v>
@@ -14420,7 +14510,7 @@
         <v>998</v>
       </c>
       <c r="B1000" s="0" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C1000" s="0" t="n">
         <v>1</v>
@@ -14431,7 +14521,7 @@
         <v>999</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C1001" s="0" t="n">
         <v>1</v>
@@ -14442,7 +14532,7 @@
         <v>1000</v>
       </c>
       <c r="B1002" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C1002" s="0" t="n">
         <v>1</v>
@@ -14453,7 +14543,7 @@
         <v>1001</v>
       </c>
       <c r="B1003" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C1003" s="0" t="n">
         <v>1</v>
@@ -14464,7 +14554,7 @@
         <v>1002</v>
       </c>
       <c r="B1004" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C1004" s="0" t="n">
         <v>1</v>
@@ -14475,7 +14565,7 @@
         <v>1003</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C1005" s="0" t="n">
         <v>1</v>
@@ -14486,7 +14576,7 @@
         <v>1004</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C1006" s="0" t="n">
         <v>1</v>
@@ -14497,7 +14587,7 @@
         <v>1005</v>
       </c>
       <c r="B1007" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C1007" s="0" t="n">
         <v>1</v>
@@ -14508,7 +14598,7 @@
         <v>1006</v>
       </c>
       <c r="B1008" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C1008" s="0" t="n">
         <v>1</v>
@@ -14519,7 +14609,7 @@
         <v>1007</v>
       </c>
       <c r="B1009" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C1009" s="0" t="n">
         <v>1</v>
@@ -14530,7 +14620,7 @@
         <v>1008</v>
       </c>
       <c r="B1010" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C1010" s="0" t="n">
         <v>1</v>
@@ -14541,7 +14631,7 @@
         <v>1009</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C1011" s="0" t="n">
         <v>1</v>
@@ -14552,7 +14642,7 @@
         <v>1010</v>
       </c>
       <c r="B1012" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C1012" s="0" t="n">
         <v>1</v>
@@ -14563,7 +14653,7 @@
         <v>1011</v>
       </c>
       <c r="B1013" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C1013" s="0" t="n">
         <v>1</v>
@@ -14574,7 +14664,7 @@
         <v>1012</v>
       </c>
       <c r="B1014" s="0" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C1014" s="0" t="n">
         <v>1</v>
@@ -14585,7 +14675,7 @@
         <v>1013</v>
       </c>
       <c r="B1015" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C1015" s="0" t="n">
         <v>1</v>
@@ -14596,7 +14686,7 @@
         <v>1014</v>
       </c>
       <c r="B1016" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C1016" s="0" t="n">
         <v>1</v>
@@ -14607,7 +14697,7 @@
         <v>1015</v>
       </c>
       <c r="B1017" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C1017" s="0" t="n">
         <v>1</v>
@@ -14618,7 +14708,7 @@
         <v>1016</v>
       </c>
       <c r="B1018" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C1018" s="0" t="n">
         <v>1</v>
@@ -14629,7 +14719,7 @@
         <v>1017</v>
       </c>
       <c r="B1019" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C1019" s="0" t="n">
         <v>1</v>
@@ -14640,7 +14730,7 @@
         <v>1018</v>
       </c>
       <c r="B1020" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C1020" s="0" t="n">
         <v>1</v>
@@ -14651,7 +14741,7 @@
         <v>1019</v>
       </c>
       <c r="B1021" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C1021" s="0" t="n">
         <v>1</v>
@@ -14662,7 +14752,7 @@
         <v>1020</v>
       </c>
       <c r="B1022" s="0" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C1022" s="0" t="n">
         <v>1</v>
@@ -14673,7 +14763,7 @@
         <v>1021</v>
       </c>
       <c r="B1023" s="0" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C1023" s="0" t="n">
         <v>1</v>
@@ -14684,7 +14774,7 @@
         <v>1022</v>
       </c>
       <c r="B1024" s="0" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C1024" s="0" t="n">
         <v>1</v>
@@ -14695,7 +14785,7 @@
         <v>1023</v>
       </c>
       <c r="B1025" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C1025" s="0" t="n">
         <v>1</v>
@@ -14706,7 +14796,7 @@
         <v>1024</v>
       </c>
       <c r="B1026" s="0" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C1026" s="0" t="n">
         <v>1</v>
@@ -14717,7 +14807,7 @@
         <v>1025</v>
       </c>
       <c r="B1027" s="0" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C1027" s="0" t="n">
         <v>1</v>

--- a/content/post/fumbbl_blogpost_src/data/race_tiers_mapping.xlsx
+++ b/content/post/fumbbl_blogpost_src/data/race_tiers_mapping.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$E$1027</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$G$1027</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="1037">
   <si>
     <t xml:space="preserve">race_name</t>
   </si>
@@ -40,18 +41,30 @@
     <t xml:space="preserve">bb2020_nov21_tier</t>
   </si>
   <si>
+    <t xml:space="preserve">race_type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Orc</t>
   </si>
   <si>
+    <t xml:space="preserve">bash</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chaos Dwarf</t>
   </si>
   <si>
     <t xml:space="preserve">Necromantic Horror</t>
   </si>
   <si>
+    <t xml:space="preserve">hybrid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dark Elf</t>
   </si>
   <si>
+    <t xml:space="preserve">agile</t>
+  </si>
+  <si>
     <t xml:space="preserve">Human</t>
   </si>
   <si>
@@ -103,6 +116,9 @@
     <t xml:space="preserve">Goblin</t>
   </si>
   <si>
+    <t xml:space="preserve">stunty</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elven Union</t>
   </si>
   <si>
@@ -113,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vampire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
   </si>
   <si>
     <t xml:space="preserve">Slann</t>
@@ -3239,10 +3258,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1027"/>
+  <dimension ref="A1:G1027"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3265,8 +3284,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>14884</v>
@@ -3287,6 +3309,9 @@
       </c>
       <c r="F2" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>12157</v>
@@ -3307,6 +3332,9 @@
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,7 +3342,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>11313</v>
@@ -3327,6 +3355,9 @@
       </c>
       <c r="F4" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>10934</v>
@@ -3347,6 +3378,9 @@
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,7 +3388,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>10809</v>
@@ -3367,6 +3401,9 @@
       </c>
       <c r="F6" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,7 +3411,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>10577</v>
@@ -3387,6 +3424,9 @@
       </c>
       <c r="F7" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3394,7 +3434,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>10344</v>
@@ -3407,6 +3447,9 @@
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,7 +3457,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>9992</v>
@@ -3427,6 +3470,9 @@
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3434,7 +3480,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9886</v>
@@ -3447,6 +3493,9 @@
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,7 +3503,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>9313</v>
@@ -3467,6 +3516,9 @@
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,7 +3526,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>8062</v>
@@ -3487,6 +3539,9 @@
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,7 +3549,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>8059</v>
@@ -3507,6 +3562,9 @@
       </c>
       <c r="F13" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3514,7 +3572,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>7845</v>
@@ -3527,6 +3585,9 @@
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3534,7 +3595,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>6814</v>
@@ -3547,6 +3608,9 @@
       </c>
       <c r="F15" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,7 +3618,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>6455</v>
@@ -3567,6 +3631,9 @@
       </c>
       <c r="F16" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,7 +3641,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>6118</v>
@@ -3587,6 +3654,9 @@
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,7 +3664,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>6088</v>
@@ -3607,6 +3677,9 @@
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,7 +3687,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>5768</v>
@@ -3627,6 +3700,9 @@
       </c>
       <c r="F19" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3634,7 +3710,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>5649</v>
@@ -3647,6 +3723,9 @@
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,7 +3733,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>5416</v>
@@ -3667,6 +3746,9 @@
       </c>
       <c r="F21" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3674,7 +3756,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>5351</v>
@@ -3687,6 +3769,9 @@
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3694,7 +3779,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>5223</v>
@@ -3707,6 +3792,9 @@
       </c>
       <c r="F23" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,7 +3802,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4284</v>
@@ -3727,6 +3815,9 @@
       </c>
       <c r="F24" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,7 +3825,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>4168</v>
@@ -3747,6 +3838,9 @@
       </c>
       <c r="F25" s="0" t="n">
         <v>3</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3754,7 +3848,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3813</v>
@@ -3767,6 +3861,9 @@
       </c>
       <c r="F26" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,13 +3871,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3312</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3788,13 +3888,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2129</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3802,7 +3905,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2003</v>
@@ -3815,6 +3918,9 @@
       </c>
       <c r="F29" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3822,7 +3928,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1830</v>
@@ -3835,6 +3941,9 @@
       </c>
       <c r="F30" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3842,7 +3951,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1224</v>
@@ -3855,6 +3964,9 @@
       </c>
       <c r="F31" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,7 +3974,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>983</v>
@@ -3873,7 +3985,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>465</v>
@@ -3884,7 +3996,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>459</v>
@@ -3895,7 +4007,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>396</v>
@@ -3906,7 +4018,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>390</v>
@@ -3917,7 +4029,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>374</v>
@@ -3928,7 +4040,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>374</v>
@@ -3939,7 +4051,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>373</v>
@@ -3950,7 +4062,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>371</v>
@@ -3961,7 +4073,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>343</v>
@@ -3972,7 +4084,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>341</v>
@@ -3983,7 +4095,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>340</v>
@@ -3994,7 +4106,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>334</v>
@@ -4005,7 +4117,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>333</v>
@@ -4016,7 +4128,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>331</v>
@@ -4027,7 +4139,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>321</v>
@@ -4038,7 +4150,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>319</v>
@@ -4049,7 +4161,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>319</v>
@@ -4060,7 +4172,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>318</v>
@@ -4071,7 +4183,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>316</v>
@@ -4082,7 +4194,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>313</v>
@@ -4093,7 +4205,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>309</v>
@@ -4104,7 +4216,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>304</v>
@@ -4115,7 +4227,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>287</v>
@@ -4126,7 +4238,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>282</v>
@@ -4137,7 +4249,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>277</v>
@@ -4148,7 +4260,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>272</v>
@@ -4159,7 +4271,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>267</v>
@@ -4170,7 +4282,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>255</v>
@@ -4181,7 +4293,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>244</v>
@@ -4192,7 +4304,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>227</v>
@@ -4203,7 +4315,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>226</v>
@@ -4214,7 +4326,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>225</v>
@@ -4225,7 +4337,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>223</v>
@@ -4236,7 +4348,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>218</v>
@@ -4247,7 +4359,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>216</v>
@@ -4258,7 +4370,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>210</v>
@@ -4269,7 +4381,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>209</v>
@@ -4280,7 +4392,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>208</v>
@@ -4291,7 +4403,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>207</v>
@@ -4302,7 +4414,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>204</v>
@@ -4313,7 +4425,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>202</v>
@@ -4324,7 +4436,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>197</v>
@@ -4335,7 +4447,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>194</v>
@@ -4346,7 +4458,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>191</v>
@@ -4357,7 +4469,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>190</v>
@@ -4368,7 +4480,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>184</v>
@@ -4379,7 +4491,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>182</v>
@@ -4390,7 +4502,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>181</v>
@@ -4401,7 +4513,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>179</v>
@@ -4412,7 +4524,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>177</v>
@@ -4423,7 +4535,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>175</v>
@@ -4434,7 +4546,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>175</v>
@@ -4445,7 +4557,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>175</v>
@@ -4456,7 +4568,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>174</v>
@@ -4467,7 +4579,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>173</v>
@@ -4478,7 +4590,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>172</v>
@@ -4489,7 +4601,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>171</v>
@@ -4500,7 +4612,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>169</v>
@@ -4511,7 +4623,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>167</v>
@@ -4522,7 +4634,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>158</v>
@@ -4533,7 +4645,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>154</v>
@@ -4544,7 +4656,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>151</v>
@@ -4555,7 +4667,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>148</v>
@@ -4566,7 +4678,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>147</v>
@@ -4577,7 +4689,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>147</v>
@@ -4588,7 +4700,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>146</v>
@@ -4599,7 +4711,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>146</v>
@@ -4610,7 +4722,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>144</v>
@@ -4621,7 +4733,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>143</v>
@@ -4632,7 +4744,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>143</v>
@@ -4643,7 +4755,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>139</v>
@@ -4654,7 +4766,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>139</v>
@@ -4665,7 +4777,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>138</v>
@@ -4676,7 +4788,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>135</v>
@@ -4687,7 +4799,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>131</v>
@@ -4698,7 +4810,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>130</v>
@@ -4709,7 +4821,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>130</v>
@@ -4720,7 +4832,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>129</v>
@@ -4731,7 +4843,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>127</v>
@@ -4742,7 +4854,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>126</v>
@@ -4753,7 +4865,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>126</v>
@@ -4764,7 +4876,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>126</v>
@@ -4775,7 +4887,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>122</v>
@@ -4786,7 +4898,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>121</v>
@@ -4797,7 +4909,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>121</v>
@@ -4808,7 +4920,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>120</v>
@@ -4819,7 +4931,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>117</v>
@@ -4830,7 +4942,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>116</v>
@@ -4841,7 +4953,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>116</v>
@@ -4852,7 +4964,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>109</v>
@@ -4863,7 +4975,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>109</v>
@@ -4874,7 +4986,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>107</v>
@@ -4885,7 +4997,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>103</v>
@@ -4896,7 +5008,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>101</v>
@@ -4907,7 +5019,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>101</v>
@@ -4918,7 +5030,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>101</v>
@@ -4929,7 +5041,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>100</v>
@@ -4940,7 +5052,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>98</v>
@@ -4951,7 +5063,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>95</v>
@@ -4962,7 +5074,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>93</v>
@@ -4973,7 +5085,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>89</v>
@@ -4984,7 +5096,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>85</v>
@@ -4995,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>82</v>
@@ -5006,7 +5118,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>81</v>
@@ -5017,7 +5129,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>81</v>
@@ -5028,7 +5140,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>80</v>
@@ -5039,7 +5151,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>77</v>
@@ -5050,7 +5162,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>75</v>
@@ -5061,7 +5173,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>75</v>
@@ -5072,7 +5184,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>74</v>
@@ -5083,7 +5195,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>71</v>
@@ -5094,7 +5206,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>69</v>
@@ -5105,7 +5217,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>58</v>
@@ -5116,7 +5228,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>54</v>
@@ -5127,7 +5239,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>52</v>
@@ -5138,7 +5250,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>51</v>
@@ -5149,7 +5261,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>50</v>
@@ -5160,7 +5272,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>47</v>
@@ -5171,7 +5283,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>42</v>
@@ -5182,7 +5294,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>42</v>
@@ -5193,7 +5305,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>41</v>
@@ -5204,7 +5316,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>41</v>
@@ -5215,7 +5327,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>40</v>
@@ -5226,7 +5338,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>40</v>
@@ -5237,7 +5349,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>40</v>
@@ -5248,7 +5360,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>39</v>
@@ -5259,7 +5371,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>39</v>
@@ -5270,7 +5382,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>39</v>
@@ -5281,7 +5393,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>39</v>
@@ -5292,7 +5404,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>39</v>
@@ -5303,7 +5415,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>38</v>
@@ -5314,7 +5426,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>38</v>
@@ -5325,7 +5437,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>38</v>
@@ -5336,7 +5448,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>38</v>
@@ -5347,7 +5459,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>38</v>
@@ -5358,7 +5470,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>38</v>
@@ -5369,7 +5481,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>38</v>
@@ -5380,7 +5492,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>38</v>
@@ -5391,7 +5503,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>38</v>
@@ -5402,7 +5514,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>38</v>
@@ -5413,7 +5525,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>38</v>
@@ -5424,7 +5536,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>37</v>
@@ -5435,7 +5547,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>37</v>
@@ -5446,7 +5558,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>37</v>
@@ -5457,7 +5569,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>37</v>
@@ -5468,7 +5580,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>37</v>
@@ -5479,7 +5591,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>37</v>
@@ -5490,7 +5602,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>37</v>
@@ -5501,7 +5613,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>37</v>
@@ -5512,7 +5624,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>37</v>
@@ -5523,7 +5635,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>37</v>
@@ -5534,7 +5646,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>37</v>
@@ -5545,7 +5657,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>36</v>
@@ -5556,7 +5668,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>36</v>
@@ -5567,7 +5679,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>36</v>
@@ -5578,7 +5690,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>36</v>
@@ -5589,7 +5701,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>36</v>
@@ -5600,7 +5712,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>36</v>
@@ -5611,7 +5723,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>36</v>
@@ -5622,7 +5734,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>36</v>
@@ -5633,7 +5745,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>36</v>
@@ -5644,7 +5756,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>36</v>
@@ -5655,7 +5767,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>36</v>
@@ -5666,7 +5778,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>36</v>
@@ -5677,7 +5789,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>35</v>
@@ -5688,7 +5800,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>35</v>
@@ -5699,7 +5811,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>35</v>
@@ -5710,7 +5822,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>35</v>
@@ -5721,7 +5833,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>35</v>
@@ -5732,7 +5844,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>35</v>
@@ -5743,7 +5855,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>35</v>
@@ -5754,7 +5866,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>35</v>
@@ -5765,7 +5877,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>35</v>
@@ -5776,7 +5888,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>35</v>
@@ -5787,7 +5899,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>35</v>
@@ -5798,7 +5910,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>35</v>
@@ -5809,7 +5921,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>35</v>
@@ -5820,7 +5932,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>35</v>
@@ -5831,7 +5943,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>35</v>
@@ -5842,7 +5954,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>35</v>
@@ -5853,7 +5965,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>35</v>
@@ -5864,7 +5976,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>34</v>
@@ -5875,7 +5987,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>34</v>
@@ -5886,7 +5998,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C216" s="0" t="n">
         <v>34</v>
@@ -5897,7 +6009,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C217" s="0" t="n">
         <v>34</v>
@@ -5908,7 +6020,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C218" s="0" t="n">
         <v>34</v>
@@ -5919,7 +6031,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C219" s="0" t="n">
         <v>34</v>
@@ -5930,7 +6042,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C220" s="0" t="n">
         <v>34</v>
@@ -5941,7 +6053,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C221" s="0" t="n">
         <v>34</v>
@@ -5952,7 +6064,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C222" s="0" t="n">
         <v>34</v>
@@ -5963,7 +6075,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C223" s="0" t="n">
         <v>34</v>
@@ -5974,7 +6086,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C224" s="0" t="n">
         <v>34</v>
@@ -5985,7 +6097,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C225" s="0" t="n">
         <v>34</v>
@@ -5996,7 +6108,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C226" s="0" t="n">
         <v>34</v>
@@ -6007,7 +6119,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C227" s="0" t="n">
         <v>34</v>
@@ -6018,7 +6130,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C228" s="0" t="n">
         <v>34</v>
@@ -6029,7 +6141,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C229" s="0" t="n">
         <v>34</v>
@@ -6040,7 +6152,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C230" s="0" t="n">
         <v>34</v>
@@ -6051,7 +6163,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>33</v>
@@ -6062,7 +6174,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C232" s="0" t="n">
         <v>33</v>
@@ -6073,7 +6185,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C233" s="0" t="n">
         <v>33</v>
@@ -6084,7 +6196,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C234" s="0" t="n">
         <v>33</v>
@@ -6095,7 +6207,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>33</v>
@@ -6106,7 +6218,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C236" s="0" t="n">
         <v>33</v>
@@ -6117,7 +6229,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C237" s="0" t="n">
         <v>33</v>
@@ -6128,7 +6240,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C238" s="0" t="n">
         <v>33</v>
@@ -6139,7 +6251,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C239" s="0" t="n">
         <v>33</v>
@@ -6150,7 +6262,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C240" s="0" t="n">
         <v>33</v>
@@ -6161,7 +6273,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C241" s="0" t="n">
         <v>33</v>
@@ -6172,7 +6284,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C242" s="0" t="n">
         <v>33</v>
@@ -6183,7 +6295,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C243" s="0" t="n">
         <v>33</v>
@@ -6194,7 +6306,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C244" s="0" t="n">
         <v>33</v>
@@ -6205,7 +6317,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C245" s="0" t="n">
         <v>33</v>
@@ -6216,7 +6328,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C246" s="0" t="n">
         <v>32</v>
@@ -6227,7 +6339,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C247" s="0" t="n">
         <v>32</v>
@@ -6238,7 +6350,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C248" s="0" t="n">
         <v>32</v>
@@ -6249,7 +6361,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C249" s="0" t="n">
         <v>32</v>
@@ -6260,7 +6372,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C250" s="0" t="n">
         <v>32</v>
@@ -6271,7 +6383,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C251" s="0" t="n">
         <v>32</v>
@@ -6282,7 +6394,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C252" s="0" t="n">
         <v>32</v>
@@ -6293,7 +6405,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C253" s="0" t="n">
         <v>32</v>
@@ -6304,7 +6416,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C254" s="0" t="n">
         <v>32</v>
@@ -6315,7 +6427,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C255" s="0" t="n">
         <v>32</v>
@@ -6326,7 +6438,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C256" s="0" t="n">
         <v>32</v>
@@ -6337,7 +6449,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C257" s="0" t="n">
         <v>32</v>
@@ -6348,7 +6460,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C258" s="0" t="n">
         <v>32</v>
@@ -6359,7 +6471,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C259" s="0" t="n">
         <v>32</v>
@@ -6370,7 +6482,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C260" s="0" t="n">
         <v>32</v>
@@ -6381,7 +6493,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C261" s="0" t="n">
         <v>32</v>
@@ -6392,7 +6504,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C262" s="0" t="n">
         <v>32</v>
@@ -6403,7 +6515,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C263" s="0" t="n">
         <v>32</v>
@@ -6414,7 +6526,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C264" s="0" t="n">
         <v>32</v>
@@ -6425,7 +6537,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C265" s="0" t="n">
         <v>32</v>
@@ -6436,7 +6548,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C266" s="0" t="n">
         <v>31</v>
@@ -6447,7 +6559,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C267" s="0" t="n">
         <v>31</v>
@@ -6458,7 +6570,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C268" s="0" t="n">
         <v>31</v>
@@ -6469,7 +6581,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C269" s="0" t="n">
         <v>31</v>
@@ -6480,7 +6592,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C270" s="0" t="n">
         <v>31</v>
@@ -6491,7 +6603,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C271" s="0" t="n">
         <v>31</v>
@@ -6502,7 +6614,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C272" s="0" t="n">
         <v>31</v>
@@ -6513,7 +6625,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C273" s="0" t="n">
         <v>31</v>
@@ -6524,7 +6636,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C274" s="0" t="n">
         <v>31</v>
@@ -6535,7 +6647,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C275" s="0" t="n">
         <v>31</v>
@@ -6546,7 +6658,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C276" s="0" t="n">
         <v>31</v>
@@ -6557,7 +6669,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C277" s="0" t="n">
         <v>31</v>
@@ -6568,7 +6680,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C278" s="0" t="n">
         <v>31</v>
@@ -6579,7 +6691,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C279" s="0" t="n">
         <v>31</v>
@@ -6590,7 +6702,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C280" s="0" t="n">
         <v>31</v>
@@ -6601,7 +6713,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C281" s="0" t="n">
         <v>31</v>
@@ -6612,7 +6724,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C282" s="0" t="n">
         <v>31</v>
@@ -6623,7 +6735,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C283" s="0" t="n">
         <v>30</v>
@@ -6634,7 +6746,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C284" s="0" t="n">
         <v>30</v>
@@ -6645,7 +6757,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C285" s="0" t="n">
         <v>30</v>
@@ -6656,7 +6768,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C286" s="0" t="n">
         <v>30</v>
@@ -6667,7 +6779,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C287" s="0" t="n">
         <v>30</v>
@@ -6678,7 +6790,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C288" s="0" t="n">
         <v>30</v>
@@ -6689,7 +6801,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C289" s="0" t="n">
         <v>30</v>
@@ -6700,7 +6812,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C290" s="0" t="n">
         <v>30</v>
@@ -6711,7 +6823,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C291" s="0" t="n">
         <v>30</v>
@@ -6722,7 +6834,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C292" s="0" t="n">
         <v>30</v>
@@ -6733,7 +6845,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C293" s="0" t="n">
         <v>30</v>
@@ -6744,7 +6856,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C294" s="0" t="n">
         <v>30</v>
@@ -6755,7 +6867,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C295" s="0" t="n">
         <v>30</v>
@@ -6766,7 +6878,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C296" s="0" t="n">
         <v>30</v>
@@ -6777,7 +6889,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C297" s="0" t="n">
         <v>30</v>
@@ -6788,7 +6900,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C298" s="0" t="n">
         <v>30</v>
@@ -6799,7 +6911,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C299" s="0" t="n">
         <v>30</v>
@@ -6810,7 +6922,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C300" s="0" t="n">
         <v>29</v>
@@ -6821,7 +6933,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C301" s="0" t="n">
         <v>29</v>
@@ -6832,7 +6944,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C302" s="0" t="n">
         <v>29</v>
@@ -6843,7 +6955,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C303" s="0" t="n">
         <v>29</v>
@@ -6854,7 +6966,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C304" s="0" t="n">
         <v>29</v>
@@ -6865,7 +6977,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C305" s="0" t="n">
         <v>29</v>
@@ -6876,7 +6988,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C306" s="0" t="n">
         <v>29</v>
@@ -6887,7 +6999,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C307" s="0" t="n">
         <v>29</v>
@@ -6898,7 +7010,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C308" s="0" t="n">
         <v>29</v>
@@ -6909,7 +7021,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C309" s="0" t="n">
         <v>29</v>
@@ -6920,7 +7032,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C310" s="0" t="n">
         <v>29</v>
@@ -6931,7 +7043,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C311" s="0" t="n">
         <v>29</v>
@@ -6942,7 +7054,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C312" s="0" t="n">
         <v>29</v>
@@ -6953,7 +7065,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C313" s="0" t="n">
         <v>29</v>
@@ -6964,7 +7076,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C314" s="0" t="n">
         <v>29</v>
@@ -6975,7 +7087,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C315" s="0" t="n">
         <v>29</v>
@@ -6986,7 +7098,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C316" s="0" t="n">
         <v>29</v>
@@ -6997,7 +7109,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C317" s="0" t="n">
         <v>29</v>
@@ -7008,7 +7120,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C318" s="0" t="n">
         <v>29</v>
@@ -7019,7 +7131,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C319" s="0" t="n">
         <v>29</v>
@@ -7030,7 +7142,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C320" s="0" t="n">
         <v>29</v>
@@ -7041,7 +7153,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C321" s="0" t="n">
         <v>29</v>
@@ -7052,7 +7164,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C322" s="0" t="n">
         <v>28</v>
@@ -7063,7 +7175,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C323" s="0" t="n">
         <v>28</v>
@@ -7074,7 +7186,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C324" s="0" t="n">
         <v>28</v>
@@ -7085,7 +7197,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C325" s="0" t="n">
         <v>28</v>
@@ -7096,7 +7208,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C326" s="0" t="n">
         <v>28</v>
@@ -7107,7 +7219,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C327" s="0" t="n">
         <v>28</v>
@@ -7118,7 +7230,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C328" s="0" t="n">
         <v>28</v>
@@ -7129,7 +7241,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C329" s="0" t="n">
         <v>28</v>
@@ -7140,7 +7252,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C330" s="0" t="n">
         <v>28</v>
@@ -7151,7 +7263,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C331" s="0" t="n">
         <v>28</v>
@@ -7162,7 +7274,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C332" s="0" t="n">
         <v>28</v>
@@ -7173,7 +7285,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C333" s="0" t="n">
         <v>28</v>
@@ -7184,7 +7296,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C334" s="0" t="n">
         <v>28</v>
@@ -7195,7 +7307,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C335" s="0" t="n">
         <v>28</v>
@@ -7206,7 +7318,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C336" s="0" t="n">
         <v>28</v>
@@ -7217,7 +7329,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C337" s="0" t="n">
         <v>28</v>
@@ -7228,7 +7340,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C338" s="0" t="n">
         <v>28</v>
@@ -7239,7 +7351,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C339" s="0" t="n">
         <v>28</v>
@@ -7250,7 +7362,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C340" s="0" t="n">
         <v>28</v>
@@ -7261,7 +7373,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C341" s="0" t="n">
         <v>28</v>
@@ -7272,7 +7384,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C342" s="0" t="n">
         <v>28</v>
@@ -7283,7 +7395,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C343" s="0" t="n">
         <v>28</v>
@@ -7294,7 +7406,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C344" s="0" t="n">
         <v>27</v>
@@ -7305,7 +7417,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C345" s="0" t="n">
         <v>27</v>
@@ -7316,7 +7428,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C346" s="0" t="n">
         <v>27</v>
@@ -7327,7 +7439,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C347" s="0" t="n">
         <v>27</v>
@@ -7338,7 +7450,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C348" s="0" t="n">
         <v>27</v>
@@ -7349,7 +7461,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C349" s="0" t="n">
         <v>27</v>
@@ -7360,7 +7472,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C350" s="0" t="n">
         <v>27</v>
@@ -7371,7 +7483,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C351" s="0" t="n">
         <v>27</v>
@@ -7382,7 +7494,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C352" s="0" t="n">
         <v>27</v>
@@ -7393,7 +7505,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C353" s="0" t="n">
         <v>27</v>
@@ -7404,7 +7516,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C354" s="0" t="n">
         <v>27</v>
@@ -7415,7 +7527,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C355" s="0" t="n">
         <v>27</v>
@@ -7426,7 +7538,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C356" s="0" t="n">
         <v>27</v>
@@ -7437,7 +7549,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C357" s="0" t="n">
         <v>27</v>
@@ -7448,7 +7560,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C358" s="0" t="n">
         <v>27</v>
@@ -7459,7 +7571,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C359" s="0" t="n">
         <v>26</v>
@@ -7470,7 +7582,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C360" s="0" t="n">
         <v>26</v>
@@ -7481,7 +7593,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C361" s="0" t="n">
         <v>26</v>
@@ -7492,7 +7604,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C362" s="0" t="n">
         <v>26</v>
@@ -7503,7 +7615,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C363" s="0" t="n">
         <v>26</v>
@@ -7514,7 +7626,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C364" s="0" t="n">
         <v>26</v>
@@ -7525,7 +7637,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C365" s="0" t="n">
         <v>26</v>
@@ -7536,7 +7648,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C366" s="0" t="n">
         <v>26</v>
@@ -7547,7 +7659,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C367" s="0" t="n">
         <v>26</v>
@@ -7558,7 +7670,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C368" s="0" t="n">
         <v>26</v>
@@ -7569,7 +7681,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C369" s="0" t="n">
         <v>26</v>
@@ -7580,7 +7692,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C370" s="0" t="n">
         <v>26</v>
@@ -7591,7 +7703,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C371" s="0" t="n">
         <v>25</v>
@@ -7602,7 +7714,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C372" s="0" t="n">
         <v>25</v>
@@ -7613,7 +7725,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C373" s="0" t="n">
         <v>25</v>
@@ -7624,7 +7736,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C374" s="0" t="n">
         <v>25</v>
@@ -7635,7 +7747,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C375" s="0" t="n">
         <v>25</v>
@@ -7646,7 +7758,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C376" s="0" t="n">
         <v>25</v>
@@ -7657,7 +7769,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C377" s="0" t="n">
         <v>25</v>
@@ -7668,7 +7780,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C378" s="0" t="n">
         <v>25</v>
@@ -7679,7 +7791,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C379" s="0" t="n">
         <v>25</v>
@@ -7690,7 +7802,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C380" s="0" t="n">
         <v>25</v>
@@ -7701,7 +7813,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C381" s="0" t="n">
         <v>25</v>
@@ -7712,7 +7824,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C382" s="0" t="n">
         <v>25</v>
@@ -7723,7 +7835,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C383" s="0" t="n">
         <v>25</v>
@@ -7734,7 +7846,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C384" s="0" t="n">
         <v>25</v>
@@ -7745,7 +7857,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C385" s="0" t="n">
         <v>25</v>
@@ -7756,7 +7868,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C386" s="0" t="n">
         <v>25</v>
@@ -7767,7 +7879,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C387" s="0" t="n">
         <v>25</v>
@@ -7778,7 +7890,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C388" s="0" t="n">
         <v>25</v>
@@ -7789,7 +7901,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C389" s="0" t="n">
         <v>25</v>
@@ -7800,7 +7912,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C390" s="0" t="n">
         <v>24</v>
@@ -7811,7 +7923,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C391" s="0" t="n">
         <v>24</v>
@@ -7822,7 +7934,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C392" s="0" t="n">
         <v>24</v>
@@ -7833,7 +7945,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C393" s="0" t="n">
         <v>24</v>
@@ -7844,7 +7956,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C394" s="0" t="n">
         <v>24</v>
@@ -7855,7 +7967,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C395" s="0" t="n">
         <v>24</v>
@@ -7866,7 +7978,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C396" s="0" t="n">
         <v>24</v>
@@ -7877,7 +7989,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C397" s="0" t="n">
         <v>24</v>
@@ -7888,7 +8000,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C398" s="0" t="n">
         <v>24</v>
@@ -7899,7 +8011,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C399" s="0" t="n">
         <v>24</v>
@@ -7910,7 +8022,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C400" s="0" t="n">
         <v>24</v>
@@ -7921,7 +8033,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C401" s="0" t="n">
         <v>24</v>
@@ -7932,7 +8044,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C402" s="0" t="n">
         <v>23</v>
@@ -7943,7 +8055,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C403" s="0" t="n">
         <v>23</v>
@@ -7954,7 +8066,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C404" s="0" t="n">
         <v>23</v>
@@ -7965,7 +8077,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C405" s="0" t="n">
         <v>23</v>
@@ -7976,7 +8088,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C406" s="0" t="n">
         <v>23</v>
@@ -7987,7 +8099,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C407" s="0" t="n">
         <v>23</v>
@@ -7998,7 +8110,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C408" s="0" t="n">
         <v>23</v>
@@ -8009,7 +8121,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C409" s="0" t="n">
         <v>23</v>
@@ -8020,7 +8132,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C410" s="0" t="n">
         <v>23</v>
@@ -8031,7 +8143,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C411" s="0" t="n">
         <v>23</v>
@@ -8042,7 +8154,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C412" s="0" t="n">
         <v>23</v>
@@ -8053,7 +8165,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C413" s="0" t="n">
         <v>23</v>
@@ -8064,7 +8176,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C414" s="0" t="n">
         <v>22</v>
@@ -8075,7 +8187,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C415" s="0" t="n">
         <v>22</v>
@@ -8086,7 +8198,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C416" s="0" t="n">
         <v>22</v>
@@ -8097,7 +8209,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C417" s="0" t="n">
         <v>22</v>
@@ -8108,7 +8220,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C418" s="0" t="n">
         <v>22</v>
@@ -8119,7 +8231,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C419" s="0" t="n">
         <v>22</v>
@@ -8130,7 +8242,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C420" s="0" t="n">
         <v>22</v>
@@ -8141,7 +8253,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C421" s="0" t="n">
         <v>22</v>
@@ -8152,7 +8264,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C422" s="0" t="n">
         <v>22</v>
@@ -8163,7 +8275,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C423" s="0" t="n">
         <v>22</v>
@@ -8174,7 +8286,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C424" s="0" t="n">
         <v>22</v>
@@ -8185,7 +8297,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C425" s="0" t="n">
         <v>22</v>
@@ -8196,7 +8308,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C426" s="0" t="n">
         <v>22</v>
@@ -8207,7 +8319,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C427" s="0" t="n">
         <v>22</v>
@@ -8218,7 +8330,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C428" s="0" t="n">
         <v>22</v>
@@ -8229,7 +8341,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C429" s="0" t="n">
         <v>22</v>
@@ -8240,7 +8352,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C430" s="0" t="n">
         <v>22</v>
@@ -8251,7 +8363,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C431" s="0" t="n">
         <v>21</v>
@@ -8262,7 +8374,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C432" s="0" t="n">
         <v>21</v>
@@ -8273,7 +8385,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C433" s="0" t="n">
         <v>21</v>
@@ -8284,7 +8396,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C434" s="0" t="n">
         <v>21</v>
@@ -8295,7 +8407,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C435" s="0" t="n">
         <v>21</v>
@@ -8306,7 +8418,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C436" s="0" t="n">
         <v>21</v>
@@ -8317,7 +8429,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C437" s="0" t="n">
         <v>21</v>
@@ -8328,7 +8440,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C438" s="0" t="n">
         <v>21</v>
@@ -8339,7 +8451,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C439" s="0" t="n">
         <v>21</v>
@@ -8350,7 +8462,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C440" s="0" t="n">
         <v>21</v>
@@ -8361,7 +8473,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C441" s="0" t="n">
         <v>21</v>
@@ -8372,7 +8484,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C442" s="0" t="n">
         <v>21</v>
@@ -8383,7 +8495,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C443" s="0" t="n">
         <v>21</v>
@@ -8394,7 +8506,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C444" s="0" t="n">
         <v>21</v>
@@ -8405,7 +8517,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C445" s="0" t="n">
         <v>21</v>
@@ -8416,7 +8528,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C446" s="0" t="n">
         <v>21</v>
@@ -8427,7 +8539,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C447" s="0" t="n">
         <v>21</v>
@@ -8438,7 +8550,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C448" s="0" t="n">
         <v>20</v>
@@ -8449,7 +8561,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C449" s="0" t="n">
         <v>20</v>
@@ -8460,7 +8572,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C450" s="0" t="n">
         <v>20</v>
@@ -8471,7 +8583,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C451" s="0" t="n">
         <v>20</v>
@@ -8482,7 +8594,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C452" s="0" t="n">
         <v>20</v>
@@ -8493,7 +8605,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C453" s="0" t="n">
         <v>20</v>
@@ -8504,7 +8616,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C454" s="0" t="n">
         <v>20</v>
@@ -8515,7 +8627,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C455" s="0" t="n">
         <v>20</v>
@@ -8526,7 +8638,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C456" s="0" t="n">
         <v>20</v>
@@ -8537,7 +8649,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C457" s="0" t="n">
         <v>20</v>
@@ -8548,7 +8660,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C458" s="0" t="n">
         <v>20</v>
@@ -8559,7 +8671,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C459" s="0" t="n">
         <v>20</v>
@@ -8570,7 +8682,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C460" s="0" t="n">
         <v>19</v>
@@ -8581,7 +8693,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C461" s="0" t="n">
         <v>19</v>
@@ -8592,7 +8704,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C462" s="0" t="n">
         <v>19</v>
@@ -8603,7 +8715,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C463" s="0" t="n">
         <v>19</v>
@@ -8614,7 +8726,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C464" s="0" t="n">
         <v>19</v>
@@ -8625,7 +8737,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C465" s="0" t="n">
         <v>19</v>
@@ -8636,7 +8748,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C466" s="0" t="n">
         <v>19</v>
@@ -8647,7 +8759,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C467" s="0" t="n">
         <v>19</v>
@@ -8658,7 +8770,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C468" s="0" t="n">
         <v>19</v>
@@ -8669,7 +8781,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C469" s="0" t="n">
         <v>19</v>
@@ -8680,7 +8792,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C470" s="0" t="n">
         <v>19</v>
@@ -8691,7 +8803,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C471" s="0" t="n">
         <v>19</v>
@@ -8702,7 +8814,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C472" s="0" t="n">
         <v>19</v>
@@ -8713,7 +8825,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C473" s="0" t="n">
         <v>19</v>
@@ -8724,7 +8836,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C474" s="0" t="n">
         <v>19</v>
@@ -8735,7 +8847,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C475" s="0" t="n">
         <v>18</v>
@@ -8746,7 +8858,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C476" s="0" t="n">
         <v>18</v>
@@ -8757,7 +8869,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C477" s="0" t="n">
         <v>18</v>
@@ -8768,7 +8880,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C478" s="0" t="n">
         <v>18</v>
@@ -8779,7 +8891,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C479" s="0" t="n">
         <v>18</v>
@@ -8790,7 +8902,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C480" s="0" t="n">
         <v>18</v>
@@ -8801,7 +8913,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C481" s="0" t="n">
         <v>18</v>
@@ -8812,7 +8924,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C482" s="0" t="n">
         <v>18</v>
@@ -8823,7 +8935,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C483" s="0" t="n">
         <v>18</v>
@@ -8834,7 +8946,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C484" s="0" t="n">
         <v>18</v>
@@ -8845,7 +8957,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C485" s="0" t="n">
         <v>18</v>
@@ -8856,7 +8968,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C486" s="0" t="n">
         <v>18</v>
@@ -8867,7 +8979,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C487" s="0" t="n">
         <v>18</v>
@@ -8878,7 +8990,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C488" s="0" t="n">
         <v>18</v>
@@ -8889,7 +9001,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C489" s="0" t="n">
         <v>18</v>
@@ -8900,7 +9012,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C490" s="0" t="n">
         <v>18</v>
@@ -8911,7 +9023,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C491" s="0" t="n">
         <v>17</v>
@@ -8922,7 +9034,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C492" s="0" t="n">
         <v>17</v>
@@ -8933,7 +9045,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C493" s="0" t="n">
         <v>17</v>
@@ -8944,7 +9056,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C494" s="0" t="n">
         <v>17</v>
@@ -8955,7 +9067,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C495" s="0" t="n">
         <v>17</v>
@@ -8966,7 +9078,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C496" s="0" t="n">
         <v>17</v>
@@ -8977,7 +9089,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C497" s="0" t="n">
         <v>17</v>
@@ -8988,7 +9100,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C498" s="0" t="n">
         <v>17</v>
@@ -8999,7 +9111,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C499" s="0" t="n">
         <v>17</v>
@@ -9010,7 +9122,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C500" s="0" t="n">
         <v>17</v>
@@ -9021,7 +9133,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C501" s="0" t="n">
         <v>17</v>
@@ -9032,7 +9144,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C502" s="0" t="n">
         <v>17</v>
@@ -9043,7 +9155,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C503" s="0" t="n">
         <v>17</v>
@@ -9054,7 +9166,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C504" s="0" t="n">
         <v>17</v>
@@ -9065,7 +9177,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C505" s="0" t="n">
         <v>17</v>
@@ -9076,7 +9188,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C506" s="0" t="n">
         <v>17</v>
@@ -9087,7 +9199,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="C507" s="0" t="n">
         <v>16</v>
@@ -9098,7 +9210,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C508" s="0" t="n">
         <v>16</v>
@@ -9109,7 +9221,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C509" s="0" t="n">
         <v>16</v>
@@ -9120,7 +9232,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C510" s="0" t="n">
         <v>16</v>
@@ -9131,7 +9243,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C511" s="0" t="n">
         <v>16</v>
@@ -9142,7 +9254,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C512" s="0" t="n">
         <v>16</v>
@@ -9153,7 +9265,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="C513" s="0" t="n">
         <v>16</v>
@@ -9164,7 +9276,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C514" s="0" t="n">
         <v>16</v>
@@ -9175,7 +9287,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C515" s="0" t="n">
         <v>16</v>
@@ -9186,7 +9298,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C516" s="0" t="n">
         <v>15</v>
@@ -9197,7 +9309,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C517" s="0" t="n">
         <v>15</v>
@@ -9208,7 +9320,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C518" s="0" t="n">
         <v>15</v>
@@ -9219,7 +9331,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C519" s="0" t="n">
         <v>15</v>
@@ -9230,7 +9342,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C520" s="0" t="n">
         <v>15</v>
@@ -9241,7 +9353,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C521" s="0" t="n">
         <v>15</v>
@@ -9252,7 +9364,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C522" s="0" t="n">
         <v>15</v>
@@ -9263,7 +9375,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C523" s="0" t="n">
         <v>15</v>
@@ -9274,7 +9386,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C524" s="0" t="n">
         <v>15</v>
@@ -9285,7 +9397,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C525" s="0" t="n">
         <v>15</v>
@@ -9296,7 +9408,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C526" s="0" t="n">
         <v>15</v>
@@ -9307,7 +9419,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C527" s="0" t="n">
         <v>15</v>
@@ -9318,7 +9430,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C528" s="0" t="n">
         <v>15</v>
@@ -9329,7 +9441,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C529" s="0" t="n">
         <v>15</v>
@@ -9340,7 +9452,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C530" s="0" t="n">
         <v>15</v>
@@ -9351,7 +9463,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C531" s="0" t="n">
         <v>15</v>
@@ -9362,7 +9474,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C532" s="0" t="n">
         <v>15</v>
@@ -9373,7 +9485,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C533" s="0" t="n">
         <v>15</v>
@@ -9384,7 +9496,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C534" s="0" t="n">
         <v>15</v>
@@ -9395,7 +9507,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C535" s="0" t="n">
         <v>14</v>
@@ -9406,7 +9518,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C536" s="0" t="n">
         <v>14</v>
@@ -9417,7 +9529,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C537" s="0" t="n">
         <v>14</v>
@@ -9428,7 +9540,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C538" s="0" t="n">
         <v>14</v>
@@ -9439,7 +9551,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C539" s="0" t="n">
         <v>14</v>
@@ -9450,7 +9562,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C540" s="0" t="n">
         <v>14</v>
@@ -9461,7 +9573,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C541" s="0" t="n">
         <v>14</v>
@@ -9472,7 +9584,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C542" s="0" t="n">
         <v>14</v>
@@ -9483,7 +9595,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C543" s="0" t="n">
         <v>14</v>
@@ -9494,7 +9606,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C544" s="0" t="n">
         <v>14</v>
@@ -9505,7 +9617,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C545" s="0" t="n">
         <v>14</v>
@@ -9516,7 +9628,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C546" s="0" t="n">
         <v>14</v>
@@ -9527,7 +9639,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C547" s="0" t="n">
         <v>14</v>
@@ -9538,7 +9650,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C548" s="0" t="n">
         <v>14</v>
@@ -9549,7 +9661,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C549" s="0" t="n">
         <v>14</v>
@@ -9560,7 +9672,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C550" s="0" t="n">
         <v>14</v>
@@ -9571,7 +9683,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C551" s="0" t="n">
         <v>14</v>
@@ -9582,7 +9694,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C552" s="0" t="n">
         <v>14</v>
@@ -9593,7 +9705,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C553" s="0" t="n">
         <v>14</v>
@@ -9604,7 +9716,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C554" s="0" t="n">
         <v>14</v>
@@ -9615,7 +9727,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C555" s="0" t="n">
         <v>13</v>
@@ -9626,7 +9738,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C556" s="0" t="n">
         <v>13</v>
@@ -9637,7 +9749,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C557" s="0" t="n">
         <v>13</v>
@@ -9648,7 +9760,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C558" s="0" t="n">
         <v>13</v>
@@ -9659,7 +9771,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C559" s="0" t="n">
         <v>13</v>
@@ -9670,7 +9782,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C560" s="0" t="n">
         <v>13</v>
@@ -9681,7 +9793,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="C561" s="0" t="n">
         <v>13</v>
@@ -9692,7 +9804,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C562" s="0" t="n">
         <v>13</v>
@@ -9703,7 +9815,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C563" s="0" t="n">
         <v>13</v>
@@ -9714,7 +9826,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C564" s="0" t="n">
         <v>13</v>
@@ -9725,7 +9837,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C565" s="0" t="n">
         <v>13</v>
@@ -9736,7 +9848,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C566" s="0" t="n">
         <v>13</v>
@@ -9747,7 +9859,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C567" s="0" t="n">
         <v>13</v>
@@ -9758,7 +9870,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C568" s="0" t="n">
         <v>13</v>
@@ -9769,7 +9881,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C569" s="0" t="n">
         <v>13</v>
@@ -9780,7 +9892,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C570" s="0" t="n">
         <v>13</v>
@@ -9791,7 +9903,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C571" s="0" t="n">
         <v>13</v>
@@ -9802,7 +9914,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C572" s="0" t="n">
         <v>12</v>
@@ -9813,7 +9925,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C573" s="0" t="n">
         <v>12</v>
@@ -9824,7 +9936,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C574" s="0" t="n">
         <v>12</v>
@@ -9835,7 +9947,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C575" s="0" t="n">
         <v>12</v>
@@ -9846,7 +9958,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C576" s="0" t="n">
         <v>12</v>
@@ -9857,7 +9969,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C577" s="0" t="n">
         <v>12</v>
@@ -9868,7 +9980,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C578" s="0" t="n">
         <v>12</v>
@@ -9879,7 +9991,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C579" s="0" t="n">
         <v>12</v>
@@ -9890,7 +10002,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C580" s="0" t="n">
         <v>12</v>
@@ -9901,7 +10013,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C581" s="0" t="n">
         <v>12</v>
@@ -9912,7 +10024,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C582" s="0" t="n">
         <v>12</v>
@@ -9923,7 +10035,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C583" s="0" t="n">
         <v>12</v>
@@ -9934,7 +10046,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C584" s="0" t="n">
         <v>12</v>
@@ -9945,7 +10057,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C585" s="0" t="n">
         <v>12</v>
@@ -9956,7 +10068,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C586" s="0" t="n">
         <v>12</v>
@@ -9967,7 +10079,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C587" s="0" t="n">
         <v>12</v>
@@ -9978,7 +10090,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C588" s="0" t="n">
         <v>12</v>
@@ -9989,7 +10101,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C589" s="0" t="n">
         <v>12</v>
@@ -10000,7 +10112,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C590" s="0" t="n">
         <v>12</v>
@@ -10011,7 +10123,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C591" s="0" t="n">
         <v>12</v>
@@ -10022,7 +10134,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="C592" s="0" t="n">
         <v>11</v>
@@ -10033,7 +10145,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C593" s="0" t="n">
         <v>11</v>
@@ -10044,7 +10156,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C594" s="0" t="n">
         <v>11</v>
@@ -10055,7 +10167,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C595" s="0" t="n">
         <v>11</v>
@@ -10066,7 +10178,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C596" s="0" t="n">
         <v>11</v>
@@ -10077,7 +10189,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C597" s="0" t="n">
         <v>11</v>
@@ -10088,7 +10200,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C598" s="0" t="n">
         <v>11</v>
@@ -10099,7 +10211,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C599" s="0" t="n">
         <v>11</v>
@@ -10110,7 +10222,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="C600" s="0" t="n">
         <v>11</v>
@@ -10121,7 +10233,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C601" s="0" t="n">
         <v>11</v>
@@ -10132,7 +10244,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C602" s="0" t="n">
         <v>11</v>
@@ -10143,7 +10255,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C603" s="0" t="n">
         <v>11</v>
@@ -10154,7 +10266,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C604" s="0" t="n">
         <v>11</v>
@@ -10165,7 +10277,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C605" s="0" t="n">
         <v>11</v>
@@ -10176,7 +10288,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C606" s="0" t="n">
         <v>11</v>
@@ -10187,7 +10299,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C607" s="0" t="n">
         <v>11</v>
@@ -10198,7 +10310,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C608" s="0" t="n">
         <v>11</v>
@@ -10209,7 +10321,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C609" s="0" t="n">
         <v>11</v>
@@ -10220,7 +10332,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C610" s="0" t="n">
         <v>11</v>
@@ -10231,7 +10343,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C611" s="0" t="n">
         <v>11</v>
@@ -10242,7 +10354,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C612" s="0" t="n">
         <v>10</v>
@@ -10253,7 +10365,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C613" s="0" t="n">
         <v>10</v>
@@ -10264,7 +10376,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C614" s="0" t="n">
         <v>10</v>
@@ -10275,7 +10387,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C615" s="0" t="n">
         <v>10</v>
@@ -10286,7 +10398,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C616" s="0" t="n">
         <v>10</v>
@@ -10297,7 +10409,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C617" s="0" t="n">
         <v>10</v>
@@ -10308,7 +10420,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C618" s="0" t="n">
         <v>10</v>
@@ -10319,7 +10431,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C619" s="0" t="n">
         <v>10</v>
@@ -10330,7 +10442,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C620" s="0" t="n">
         <v>10</v>
@@ -10341,7 +10453,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C621" s="0" t="n">
         <v>10</v>
@@ -10352,7 +10464,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="C622" s="0" t="n">
         <v>10</v>
@@ -10363,7 +10475,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="C623" s="0" t="n">
         <v>10</v>
@@ -10374,7 +10486,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="C624" s="0" t="n">
         <v>10</v>
@@ -10385,7 +10497,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C625" s="0" t="n">
         <v>10</v>
@@ -10396,7 +10508,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="0" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C626" s="0" t="n">
         <v>10</v>
@@ -10407,7 +10519,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C627" s="0" t="n">
         <v>10</v>
@@ -10418,7 +10530,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C628" s="0" t="n">
         <v>10</v>
@@ -10429,7 +10541,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="0" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C629" s="0" t="n">
         <v>10</v>
@@ -10440,7 +10552,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="0" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C630" s="0" t="n">
         <v>9</v>
@@ -10451,7 +10563,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="0" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C631" s="0" t="n">
         <v>9</v>
@@ -10462,7 +10574,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="0" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C632" s="0" t="n">
         <v>9</v>
@@ -10473,7 +10585,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="0" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C633" s="0" t="n">
         <v>9</v>
@@ -10484,7 +10596,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C634" s="0" t="n">
         <v>9</v>
@@ -10495,7 +10607,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C635" s="0" t="n">
         <v>9</v>
@@ -10506,7 +10618,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="0" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C636" s="0" t="n">
         <v>9</v>
@@ -10517,7 +10629,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="0" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C637" s="0" t="n">
         <v>9</v>
@@ -10528,7 +10640,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C638" s="0" t="n">
         <v>9</v>
@@ -10539,7 +10651,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C639" s="0" t="n">
         <v>9</v>
@@ -10550,7 +10662,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C640" s="0" t="n">
         <v>9</v>
@@ -10561,7 +10673,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="C641" s="0" t="n">
         <v>9</v>
@@ -10572,7 +10684,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C642" s="0" t="n">
         <v>9</v>
@@ -10583,7 +10695,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="0" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="C643" s="0" t="n">
         <v>9</v>
@@ -10594,7 +10706,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="0" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C644" s="0" t="n">
         <v>9</v>
@@ -10605,7 +10717,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="0" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="C645" s="0" t="n">
         <v>9</v>
@@ -10616,7 +10728,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="0" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C646" s="0" t="n">
         <v>9</v>
@@ -10627,7 +10739,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="0" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="C647" s="0" t="n">
         <v>9</v>
@@ -10638,7 +10750,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="0" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C648" s="0" t="n">
         <v>9</v>
@@ -10649,7 +10761,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="0" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C649" s="0" t="n">
         <v>9</v>
@@ -10660,7 +10772,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C650" s="0" t="n">
         <v>9</v>
@@ -10671,7 +10783,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="0" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="C651" s="0" t="n">
         <v>9</v>
@@ -10682,7 +10794,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="0" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C652" s="0" t="n">
         <v>9</v>
@@ -10693,7 +10805,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="0" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="C653" s="0" t="n">
         <v>8</v>
@@ -10704,7 +10816,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C654" s="0" t="n">
         <v>8</v>
@@ -10715,7 +10827,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="0" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C655" s="0" t="n">
         <v>8</v>
@@ -10726,7 +10838,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="C656" s="0" t="n">
         <v>8</v>
@@ -10737,7 +10849,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C657" s="0" t="n">
         <v>8</v>
@@ -10748,7 +10860,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C658" s="0" t="n">
         <v>8</v>
@@ -10759,7 +10871,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C659" s="0" t="n">
         <v>8</v>
@@ -10770,7 +10882,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C660" s="0" t="n">
         <v>8</v>
@@ -10781,7 +10893,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C661" s="0" t="n">
         <v>8</v>
@@ -10792,7 +10904,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C662" s="0" t="n">
         <v>8</v>
@@ -10803,7 +10915,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="0" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="C663" s="0" t="n">
         <v>8</v>
@@ -10814,7 +10926,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C664" s="0" t="n">
         <v>8</v>
@@ -10825,7 +10937,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C665" s="0" t="n">
         <v>8</v>
@@ -10836,7 +10948,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="C666" s="0" t="n">
         <v>8</v>
@@ -10847,7 +10959,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="C667" s="0" t="n">
         <v>8</v>
@@ -10858,7 +10970,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C668" s="0" t="n">
         <v>8</v>
@@ -10869,7 +10981,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C669" s="0" t="n">
         <v>8</v>
@@ -10880,7 +10992,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C670" s="0" t="n">
         <v>8</v>
@@ -10891,7 +11003,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C671" s="0" t="n">
         <v>8</v>
@@ -10902,7 +11014,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C672" s="0" t="n">
         <v>8</v>
@@ -10913,7 +11025,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C673" s="0" t="n">
         <v>8</v>
@@ -10924,7 +11036,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C674" s="0" t="n">
         <v>8</v>
@@ -10935,7 +11047,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="C675" s="0" t="n">
         <v>8</v>
@@ -10946,7 +11058,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C676" s="0" t="n">
         <v>8</v>
@@ -10957,7 +11069,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="0" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C677" s="0" t="n">
         <v>8</v>
@@ -10968,7 +11080,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="0" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C678" s="0" t="n">
         <v>8</v>
@@ -10979,7 +11091,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="0" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C679" s="0" t="n">
         <v>8</v>
@@ -10990,7 +11102,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C680" s="0" t="n">
         <v>8</v>
@@ -11001,7 +11113,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C681" s="0" t="n">
         <v>8</v>
@@ -11012,7 +11124,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C682" s="0" t="n">
         <v>8</v>
@@ -11023,7 +11135,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="C683" s="0" t="n">
         <v>8</v>
@@ -11034,7 +11146,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="C684" s="0" t="n">
         <v>7</v>
@@ -11045,7 +11157,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="0" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C685" s="0" t="n">
         <v>7</v>
@@ -11056,7 +11168,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="0" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C686" s="0" t="n">
         <v>7</v>
@@ -11067,7 +11179,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="C687" s="0" t="n">
         <v>7</v>
@@ -11078,7 +11190,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="0" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C688" s="0" t="n">
         <v>7</v>
@@ -11089,7 +11201,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="0" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="C689" s="0" t="n">
         <v>7</v>
@@ -11100,7 +11212,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="C690" s="0" t="n">
         <v>7</v>
@@ -11111,7 +11223,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="C691" s="0" t="n">
         <v>7</v>
@@ -11122,7 +11234,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="0" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C692" s="0" t="n">
         <v>7</v>
@@ -11133,7 +11245,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="0" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="C693" s="0" t="n">
         <v>7</v>
@@ -11144,7 +11256,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C694" s="0" t="n">
         <v>7</v>
@@ -11155,7 +11267,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="0" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="C695" s="0" t="n">
         <v>7</v>
@@ -11166,7 +11278,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="0" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C696" s="0" t="n">
         <v>7</v>
@@ -11177,7 +11289,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="0" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="C697" s="0" t="n">
         <v>7</v>
@@ -11188,7 +11300,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C698" s="0" t="n">
         <v>7</v>
@@ -11199,7 +11311,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="0" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C699" s="0" t="n">
         <v>7</v>
@@ -11210,7 +11322,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="0" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C700" s="0" t="n">
         <v>7</v>
@@ -11221,7 +11333,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="C701" s="0" t="n">
         <v>7</v>
@@ -11232,7 +11344,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="0" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="C702" s="0" t="n">
         <v>7</v>
@@ -11243,7 +11355,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="0" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C703" s="0" t="n">
         <v>7</v>
@@ -11254,7 +11366,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="0" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C704" s="0" t="n">
         <v>7</v>
@@ -11265,7 +11377,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="0" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="C705" s="0" t="n">
         <v>7</v>
@@ -11276,7 +11388,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="0" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C706" s="0" t="n">
         <v>7</v>
@@ -11287,7 +11399,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="0" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="C707" s="0" t="n">
         <v>7</v>
@@ -11298,7 +11410,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="0" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C708" s="0" t="n">
         <v>7</v>
@@ -11309,7 +11421,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="0" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="C709" s="0" t="n">
         <v>7</v>
@@ -11320,7 +11432,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="0" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C710" s="0" t="n">
         <v>7</v>
@@ -11331,7 +11443,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="0" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C711" s="0" t="n">
         <v>7</v>
@@ -11342,7 +11454,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="0" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C712" s="0" t="n">
         <v>7</v>
@@ -11353,7 +11465,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="0" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C713" s="0" t="n">
         <v>7</v>
@@ -11364,7 +11476,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="0" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C714" s="0" t="n">
         <v>7</v>
@@ -11375,7 +11487,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="0" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="C715" s="0" t="n">
         <v>7</v>
@@ -11386,7 +11498,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="0" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C716" s="0" t="n">
         <v>7</v>
@@ -11397,7 +11509,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="0" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="C717" s="0" t="n">
         <v>7</v>
@@ -11408,7 +11520,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="0" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C718" s="0" t="n">
         <v>7</v>
@@ -11419,7 +11531,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="0" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="C719" s="0" t="n">
         <v>7</v>
@@ -11430,7 +11542,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="0" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="C720" s="0" t="n">
         <v>7</v>
@@ -11441,7 +11553,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="0" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="C721" s="0" t="n">
         <v>7</v>
@@ -11452,7 +11564,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="0" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="C722" s="0" t="n">
         <v>7</v>
@@ -11463,7 +11575,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="0" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="C723" s="0" t="n">
         <v>6</v>
@@ -11474,7 +11586,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="0" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C724" s="0" t="n">
         <v>6</v>
@@ -11485,7 +11597,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="0" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="C725" s="0" t="n">
         <v>6</v>
@@ -11496,7 +11608,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="0" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C726" s="0" t="n">
         <v>6</v>
@@ -11507,7 +11619,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="0" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="C727" s="0" t="n">
         <v>6</v>
@@ -11518,7 +11630,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="0" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="C728" s="0" t="n">
         <v>6</v>
@@ -11529,7 +11641,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="0" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="C729" s="0" t="n">
         <v>6</v>
@@ -11540,7 +11652,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="0" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="C730" s="0" t="n">
         <v>6</v>
@@ -11551,7 +11663,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="0" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="C731" s="0" t="n">
         <v>6</v>
@@ -11562,7 +11674,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="0" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="C732" s="0" t="n">
         <v>6</v>
@@ -11573,7 +11685,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="0" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="C733" s="0" t="n">
         <v>6</v>
@@ -11584,7 +11696,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="0" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="C734" s="0" t="n">
         <v>6</v>
@@ -11595,7 +11707,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="0" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="C735" s="0" t="n">
         <v>6</v>
@@ -11606,7 +11718,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C736" s="0" t="n">
         <v>6</v>
@@ -11617,7 +11729,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="C737" s="0" t="n">
         <v>6</v>
@@ -11628,7 +11740,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="0" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="C738" s="0" t="n">
         <v>6</v>
@@ -11639,7 +11751,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="C739" s="0" t="n">
         <v>6</v>
@@ -11650,7 +11762,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="C740" s="0" t="n">
         <v>6</v>
@@ -11661,7 +11773,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="0" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="C741" s="0" t="n">
         <v>6</v>
@@ -11672,7 +11784,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="0" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="C742" s="0" t="n">
         <v>6</v>
@@ -11683,7 +11795,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="0" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="C743" s="0" t="n">
         <v>6</v>
@@ -11694,7 +11806,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="C744" s="0" t="n">
         <v>6</v>
@@ -11705,7 +11817,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="C745" s="0" t="n">
         <v>6</v>
@@ -11716,7 +11828,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="0" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="C746" s="0" t="n">
         <v>6</v>
@@ -11727,7 +11839,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="0" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="C747" s="0" t="n">
         <v>6</v>
@@ -11738,7 +11850,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="0" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="C748" s="0" t="n">
         <v>6</v>
@@ -11749,7 +11861,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="0" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="C749" s="0" t="n">
         <v>6</v>
@@ -11760,7 +11872,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="0" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="C750" s="0" t="n">
         <v>6</v>
@@ -11771,7 +11883,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="0" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C751" s="0" t="n">
         <v>6</v>
@@ -11782,7 +11894,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="0" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="C752" s="0" t="n">
         <v>6</v>
@@ -11793,7 +11905,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="0" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="C753" s="0" t="n">
         <v>6</v>
@@ -11804,7 +11916,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="0" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C754" s="0" t="n">
         <v>6</v>
@@ -11815,7 +11927,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="0" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="C755" s="0" t="n">
         <v>6</v>
@@ -11826,7 +11938,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="0" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C756" s="0" t="n">
         <v>6</v>
@@ -11837,7 +11949,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="C757" s="0" t="n">
         <v>6</v>
@@ -11848,7 +11960,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="0" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="C758" s="0" t="n">
         <v>6</v>
@@ -11859,7 +11971,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="0" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="C759" s="0" t="n">
         <v>6</v>
@@ -11870,7 +11982,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="0" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="C760" s="0" t="n">
         <v>6</v>
@@ -11881,7 +11993,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="0" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="C761" s="0" t="n">
         <v>6</v>
@@ -11892,7 +12004,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="0" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="C762" s="0" t="n">
         <v>6</v>
@@ -11903,7 +12015,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="0" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C763" s="0" t="n">
         <v>6</v>
@@ -11914,7 +12026,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="0" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="C764" s="0" t="n">
         <v>6</v>
@@ -11925,7 +12037,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="0" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="C765" s="0" t="n">
         <v>6</v>
@@ -11936,7 +12048,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="0" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C766" s="0" t="n">
         <v>6</v>
@@ -11947,7 +12059,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="0" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="C767" s="0" t="n">
         <v>6</v>
@@ -11958,7 +12070,7 @@
         <v>766</v>
       </c>
       <c r="B768" s="0" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C768" s="0" t="n">
         <v>6</v>
@@ -11969,7 +12081,7 @@
         <v>767</v>
       </c>
       <c r="B769" s="0" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="C769" s="0" t="n">
         <v>6</v>
@@ -11980,7 +12092,7 @@
         <v>768</v>
       </c>
       <c r="B770" s="0" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="C770" s="0" t="n">
         <v>5</v>
@@ -11991,7 +12103,7 @@
         <v>769</v>
       </c>
       <c r="B771" s="0" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C771" s="0" t="n">
         <v>5</v>
@@ -12002,7 +12114,7 @@
         <v>770</v>
       </c>
       <c r="B772" s="0" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C772" s="0" t="n">
         <v>5</v>
@@ -12013,7 +12125,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="0" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="C773" s="0" t="n">
         <v>5</v>
@@ -12024,7 +12136,7 @@
         <v>772</v>
       </c>
       <c r="B774" s="0" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C774" s="0" t="n">
         <v>5</v>
@@ -12035,7 +12147,7 @@
         <v>773</v>
       </c>
       <c r="B775" s="0" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C775" s="0" t="n">
         <v>5</v>
@@ -12046,7 +12158,7 @@
         <v>774</v>
       </c>
       <c r="B776" s="0" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C776" s="0" t="n">
         <v>5</v>
@@ -12057,7 +12169,7 @@
         <v>775</v>
       </c>
       <c r="B777" s="0" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="C777" s="0" t="n">
         <v>5</v>
@@ -12068,7 +12180,7 @@
         <v>776</v>
       </c>
       <c r="B778" s="0" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="C778" s="0" t="n">
         <v>5</v>
@@ -12079,7 +12191,7 @@
         <v>777</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="C779" s="0" t="n">
         <v>5</v>
@@ -12090,7 +12202,7 @@
         <v>778</v>
       </c>
       <c r="B780" s="0" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="C780" s="0" t="n">
         <v>5</v>
@@ -12101,7 +12213,7 @@
         <v>779</v>
       </c>
       <c r="B781" s="0" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="C781" s="0" t="n">
         <v>5</v>
@@ -12112,7 +12224,7 @@
         <v>780</v>
       </c>
       <c r="B782" s="0" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="C782" s="0" t="n">
         <v>5</v>
@@ -12123,7 +12235,7 @@
         <v>781</v>
       </c>
       <c r="B783" s="0" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="C783" s="0" t="n">
         <v>5</v>
@@ -12134,7 +12246,7 @@
         <v>782</v>
       </c>
       <c r="B784" s="0" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="C784" s="0" t="n">
         <v>5</v>
@@ -12145,7 +12257,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="0" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C785" s="0" t="n">
         <v>5</v>
@@ -12156,7 +12268,7 @@
         <v>784</v>
       </c>
       <c r="B786" s="0" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C786" s="0" t="n">
         <v>5</v>
@@ -12167,7 +12279,7 @@
         <v>785</v>
       </c>
       <c r="B787" s="0" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="C787" s="0" t="n">
         <v>5</v>
@@ -12178,7 +12290,7 @@
         <v>786</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="C788" s="0" t="n">
         <v>5</v>
@@ -12189,7 +12301,7 @@
         <v>787</v>
       </c>
       <c r="B789" s="0" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="C789" s="0" t="n">
         <v>5</v>
@@ -12200,7 +12312,7 @@
         <v>788</v>
       </c>
       <c r="B790" s="0" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="C790" s="0" t="n">
         <v>5</v>
@@ -12211,7 +12323,7 @@
         <v>789</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="C791" s="0" t="n">
         <v>5</v>
@@ -12222,7 +12334,7 @@
         <v>790</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="C792" s="0" t="n">
         <v>5</v>
@@ -12233,7 +12345,7 @@
         <v>791</v>
       </c>
       <c r="B793" s="0" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="C793" s="0" t="n">
         <v>5</v>
@@ -12244,7 +12356,7 @@
         <v>792</v>
       </c>
       <c r="B794" s="0" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="C794" s="0" t="n">
         <v>5</v>
@@ -12255,7 +12367,7 @@
         <v>793</v>
       </c>
       <c r="B795" s="0" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="C795" s="0" t="n">
         <v>5</v>
@@ -12266,7 +12378,7 @@
         <v>794</v>
       </c>
       <c r="B796" s="0" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="C796" s="0" t="n">
         <v>5</v>
@@ -12277,7 +12389,7 @@
         <v>795</v>
       </c>
       <c r="B797" s="0" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C797" s="0" t="n">
         <v>5</v>
@@ -12288,7 +12400,7 @@
         <v>796</v>
       </c>
       <c r="B798" s="0" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="C798" s="0" t="n">
         <v>5</v>
@@ -12299,7 +12411,7 @@
         <v>797</v>
       </c>
       <c r="B799" s="0" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C799" s="0" t="n">
         <v>5</v>
@@ -12310,7 +12422,7 @@
         <v>798</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C800" s="0" t="n">
         <v>5</v>
@@ -12321,7 +12433,7 @@
         <v>799</v>
       </c>
       <c r="B801" s="0" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="C801" s="0" t="n">
         <v>5</v>
@@ -12332,7 +12444,7 @@
         <v>800</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="C802" s="0" t="n">
         <v>5</v>
@@ -12343,7 +12455,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="0" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="C803" s="0" t="n">
         <v>5</v>
@@ -12354,7 +12466,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="0" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="C804" s="0" t="n">
         <v>5</v>
@@ -12365,7 +12477,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="0" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="C805" s="0" t="n">
         <v>5</v>
@@ -12376,7 +12488,7 @@
         <v>804</v>
       </c>
       <c r="B806" s="0" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="C806" s="0" t="n">
         <v>5</v>
@@ -12387,7 +12499,7 @@
         <v>805</v>
       </c>
       <c r="B807" s="0" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="C807" s="0" t="n">
         <v>5</v>
@@ -12398,7 +12510,7 @@
         <v>806</v>
       </c>
       <c r="B808" s="0" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="C808" s="0" t="n">
         <v>5</v>
@@ -12409,7 +12521,7 @@
         <v>807</v>
       </c>
       <c r="B809" s="0" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="C809" s="0" t="n">
         <v>5</v>
@@ -12420,7 +12532,7 @@
         <v>808</v>
       </c>
       <c r="B810" s="0" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="C810" s="0" t="n">
         <v>5</v>
@@ -12431,7 +12543,7 @@
         <v>809</v>
       </c>
       <c r="B811" s="0" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="C811" s="0" t="n">
         <v>5</v>
@@ -12442,7 +12554,7 @@
         <v>810</v>
       </c>
       <c r="B812" s="0" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="C812" s="0" t="n">
         <v>5</v>
@@ -12453,7 +12565,7 @@
         <v>811</v>
       </c>
       <c r="B813" s="0" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="C813" s="0" t="n">
         <v>5</v>
@@ -12464,7 +12576,7 @@
         <v>812</v>
       </c>
       <c r="B814" s="0" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="C814" s="0" t="n">
         <v>5</v>
@@ -12475,7 +12587,7 @@
         <v>813</v>
       </c>
       <c r="B815" s="0" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="C815" s="0" t="n">
         <v>5</v>
@@ -12486,7 +12598,7 @@
         <v>814</v>
       </c>
       <c r="B816" s="0" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="C816" s="0" t="n">
         <v>5</v>
@@ -12497,7 +12609,7 @@
         <v>815</v>
       </c>
       <c r="B817" s="0" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="C817" s="0" t="n">
         <v>5</v>
@@ -12508,7 +12620,7 @@
         <v>816</v>
       </c>
       <c r="B818" s="0" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C818" s="0" t="n">
         <v>5</v>
@@ -12519,7 +12631,7 @@
         <v>817</v>
       </c>
       <c r="B819" s="0" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="C819" s="0" t="n">
         <v>5</v>
@@ -12530,7 +12642,7 @@
         <v>818</v>
       </c>
       <c r="B820" s="0" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C820" s="0" t="n">
         <v>5</v>
@@ -12541,7 +12653,7 @@
         <v>819</v>
       </c>
       <c r="B821" s="0" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="C821" s="0" t="n">
         <v>5</v>
@@ -12552,7 +12664,7 @@
         <v>820</v>
       </c>
       <c r="B822" s="0" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="C822" s="0" t="n">
         <v>5</v>
@@ -12563,7 +12675,7 @@
         <v>821</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="C823" s="0" t="n">
         <v>5</v>
@@ -12574,7 +12686,7 @@
         <v>822</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C824" s="0" t="n">
         <v>4</v>
@@ -12585,7 +12697,7 @@
         <v>823</v>
       </c>
       <c r="B825" s="0" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="C825" s="0" t="n">
         <v>4</v>
@@ -12596,7 +12708,7 @@
         <v>824</v>
       </c>
       <c r="B826" s="0" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C826" s="0" t="n">
         <v>4</v>
@@ -12607,7 +12719,7 @@
         <v>825</v>
       </c>
       <c r="B827" s="0" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="C827" s="0" t="n">
         <v>4</v>
@@ -12618,7 +12730,7 @@
         <v>826</v>
       </c>
       <c r="B828" s="0" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C828" s="0" t="n">
         <v>4</v>
@@ -12629,7 +12741,7 @@
         <v>827</v>
       </c>
       <c r="B829" s="0" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="C829" s="0" t="n">
         <v>4</v>
@@ -12640,7 +12752,7 @@
         <v>828</v>
       </c>
       <c r="B830" s="0" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="C830" s="0" t="n">
         <v>4</v>
@@ -12651,7 +12763,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="C831" s="0" t="n">
         <v>4</v>
@@ -12662,7 +12774,7 @@
         <v>830</v>
       </c>
       <c r="B832" s="0" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C832" s="0" t="n">
         <v>4</v>
@@ -12673,7 +12785,7 @@
         <v>831</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="C833" s="0" t="n">
         <v>4</v>
@@ -12684,7 +12796,7 @@
         <v>832</v>
       </c>
       <c r="B834" s="0" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="C834" s="0" t="n">
         <v>4</v>
@@ -12695,7 +12807,7 @@
         <v>833</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="C835" s="0" t="n">
         <v>4</v>
@@ -12706,7 +12818,7 @@
         <v>834</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="C836" s="0" t="n">
         <v>4</v>
@@ -12717,7 +12829,7 @@
         <v>835</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="C837" s="0" t="n">
         <v>4</v>
@@ -12728,7 +12840,7 @@
         <v>836</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C838" s="0" t="n">
         <v>4</v>
@@ -12739,7 +12851,7 @@
         <v>837</v>
       </c>
       <c r="B839" s="0" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="C839" s="0" t="n">
         <v>4</v>
@@ -12750,7 +12862,7 @@
         <v>838</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C840" s="0" t="n">
         <v>4</v>
@@ -12761,7 +12873,7 @@
         <v>839</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="C841" s="0" t="n">
         <v>4</v>
@@ -12772,7 +12884,7 @@
         <v>840</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C842" s="0" t="n">
         <v>4</v>
@@ -12783,7 +12895,7 @@
         <v>841</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="C843" s="0" t="n">
         <v>4</v>
@@ -12794,7 +12906,7 @@
         <v>842</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="C844" s="0" t="n">
         <v>4</v>
@@ -12805,7 +12917,7 @@
         <v>843</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C845" s="0" t="n">
         <v>4</v>
@@ -12816,7 +12928,7 @@
         <v>844</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="C846" s="0" t="n">
         <v>4</v>
@@ -12827,7 +12939,7 @@
         <v>845</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="C847" s="0" t="n">
         <v>4</v>
@@ -12838,7 +12950,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="C848" s="0" t="n">
         <v>4</v>
@@ -12849,7 +12961,7 @@
         <v>847</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="C849" s="0" t="n">
         <v>4</v>
@@ -12860,7 +12972,7 @@
         <v>848</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="C850" s="0" t="n">
         <v>4</v>
@@ -12871,7 +12983,7 @@
         <v>849</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="C851" s="0" t="n">
         <v>4</v>
@@ -12882,7 +12994,7 @@
         <v>850</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="C852" s="0" t="n">
         <v>4</v>
@@ -12893,7 +13005,7 @@
         <v>851</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="C853" s="0" t="n">
         <v>4</v>
@@ -12904,7 +13016,7 @@
         <v>852</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="C854" s="0" t="n">
         <v>4</v>
@@ -12915,7 +13027,7 @@
         <v>853</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="C855" s="0" t="n">
         <v>4</v>
@@ -12926,7 +13038,7 @@
         <v>854</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="C856" s="0" t="n">
         <v>4</v>
@@ -12937,7 +13049,7 @@
         <v>855</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="C857" s="0" t="n">
         <v>4</v>
@@ -12948,7 +13060,7 @@
         <v>856</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="C858" s="0" t="n">
         <v>4</v>
@@ -12959,7 +13071,7 @@
         <v>857</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="C859" s="0" t="n">
         <v>4</v>
@@ -12970,7 +13082,7 @@
         <v>858</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="C860" s="0" t="n">
         <v>4</v>
@@ -12981,7 +13093,7 @@
         <v>859</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="C861" s="0" t="n">
         <v>3</v>
@@ -12992,7 +13104,7 @@
         <v>860</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="C862" s="0" t="n">
         <v>3</v>
@@ -13003,7 +13115,7 @@
         <v>861</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="C863" s="0" t="n">
         <v>3</v>
@@ -13014,7 +13126,7 @@
         <v>862</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="C864" s="0" t="n">
         <v>3</v>
@@ -13025,7 +13137,7 @@
         <v>863</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="C865" s="0" t="n">
         <v>3</v>
@@ -13036,7 +13148,7 @@
         <v>864</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="C866" s="0" t="n">
         <v>3</v>
@@ -13047,7 +13159,7 @@
         <v>865</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="C867" s="0" t="n">
         <v>3</v>
@@ -13058,7 +13170,7 @@
         <v>866</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="C868" s="0" t="n">
         <v>3</v>
@@ -13069,7 +13181,7 @@
         <v>867</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="C869" s="0" t="n">
         <v>3</v>
@@ -13080,7 +13192,7 @@
         <v>868</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="C870" s="0" t="n">
         <v>3</v>
@@ -13091,7 +13203,7 @@
         <v>869</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C871" s="0" t="n">
         <v>3</v>
@@ -13102,7 +13214,7 @@
         <v>870</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="C872" s="0" t="n">
         <v>3</v>
@@ -13113,7 +13225,7 @@
         <v>871</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="C873" s="0" t="n">
         <v>3</v>
@@ -13124,7 +13236,7 @@
         <v>872</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="C874" s="0" t="n">
         <v>3</v>
@@ -13135,7 +13247,7 @@
         <v>873</v>
       </c>
       <c r="B875" s="0" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="C875" s="0" t="n">
         <v>3</v>
@@ -13146,7 +13258,7 @@
         <v>874</v>
       </c>
       <c r="B876" s="0" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="C876" s="0" t="n">
         <v>3</v>
@@ -13157,7 +13269,7 @@
         <v>875</v>
       </c>
       <c r="B877" s="0" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="C877" s="0" t="n">
         <v>3</v>
@@ -13168,7 +13280,7 @@
         <v>876</v>
       </c>
       <c r="B878" s="0" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="C878" s="0" t="n">
         <v>3</v>
@@ -13179,7 +13291,7 @@
         <v>877</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="C879" s="0" t="n">
         <v>3</v>
@@ -13190,7 +13302,7 @@
         <v>878</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C880" s="0" t="n">
         <v>3</v>
@@ -13201,7 +13313,7 @@
         <v>879</v>
       </c>
       <c r="B881" s="0" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="C881" s="0" t="n">
         <v>3</v>
@@ -13212,7 +13324,7 @@
         <v>880</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="C882" s="0" t="n">
         <v>3</v>
@@ -13223,7 +13335,7 @@
         <v>881</v>
       </c>
       <c r="B883" s="0" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C883" s="0" t="n">
         <v>3</v>
@@ -13234,7 +13346,7 @@
         <v>882</v>
       </c>
       <c r="B884" s="0" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="C884" s="0" t="n">
         <v>3</v>
@@ -13245,7 +13357,7 @@
         <v>883</v>
       </c>
       <c r="B885" s="0" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="C885" s="0" t="n">
         <v>3</v>
@@ -13256,7 +13368,7 @@
         <v>884</v>
       </c>
       <c r="B886" s="0" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="C886" s="0" t="n">
         <v>3</v>
@@ -13267,7 +13379,7 @@
         <v>885</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C887" s="0" t="n">
         <v>3</v>
@@ -13278,7 +13390,7 @@
         <v>886</v>
       </c>
       <c r="B888" s="0" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="C888" s="0" t="n">
         <v>3</v>
@@ -13289,7 +13401,7 @@
         <v>887</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="C889" s="0" t="n">
         <v>3</v>
@@ -13300,7 +13412,7 @@
         <v>888</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="C890" s="0" t="n">
         <v>3</v>
@@ -13311,7 +13423,7 @@
         <v>889</v>
       </c>
       <c r="B891" s="0" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="C891" s="0" t="n">
         <v>3</v>
@@ -13322,7 +13434,7 @@
         <v>890</v>
       </c>
       <c r="B892" s="0" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="C892" s="0" t="n">
         <v>3</v>
@@ -13333,7 +13445,7 @@
         <v>891</v>
       </c>
       <c r="B893" s="0" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C893" s="0" t="n">
         <v>3</v>
@@ -13344,7 +13456,7 @@
         <v>892</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="C894" s="0" t="n">
         <v>3</v>
@@ -13355,7 +13467,7 @@
         <v>893</v>
       </c>
       <c r="B895" s="0" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="C895" s="0" t="n">
         <v>3</v>
@@ -13366,7 +13478,7 @@
         <v>894</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="C896" s="0" t="n">
         <v>3</v>
@@ -13377,7 +13489,7 @@
         <v>895</v>
       </c>
       <c r="B897" s="0" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="C897" s="0" t="n">
         <v>3</v>
@@ -13388,7 +13500,7 @@
         <v>896</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="C898" s="0" t="n">
         <v>2</v>
@@ -13399,7 +13511,7 @@
         <v>897</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="C899" s="0" t="n">
         <v>2</v>
@@ -13410,7 +13522,7 @@
         <v>898</v>
       </c>
       <c r="B900" s="0" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="C900" s="0" t="n">
         <v>2</v>
@@ -13421,7 +13533,7 @@
         <v>899</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="C901" s="0" t="n">
         <v>2</v>
@@ -13432,7 +13544,7 @@
         <v>900</v>
       </c>
       <c r="B902" s="0" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="C902" s="0" t="n">
         <v>2</v>
@@ -13443,7 +13555,7 @@
         <v>901</v>
       </c>
       <c r="B903" s="0" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="C903" s="0" t="n">
         <v>2</v>
@@ -13454,7 +13566,7 @@
         <v>902</v>
       </c>
       <c r="B904" s="0" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="C904" s="0" t="n">
         <v>2</v>
@@ -13465,7 +13577,7 @@
         <v>903</v>
       </c>
       <c r="B905" s="0" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="C905" s="0" t="n">
         <v>2</v>
@@ -13476,7 +13588,7 @@
         <v>904</v>
       </c>
       <c r="B906" s="0" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="C906" s="0" t="n">
         <v>2</v>
@@ -13487,7 +13599,7 @@
         <v>905</v>
       </c>
       <c r="B907" s="0" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="C907" s="0" t="n">
         <v>2</v>
@@ -13498,7 +13610,7 @@
         <v>906</v>
       </c>
       <c r="B908" s="0" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="C908" s="0" t="n">
         <v>2</v>
@@ -13509,7 +13621,7 @@
         <v>907</v>
       </c>
       <c r="B909" s="0" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="C909" s="0" t="n">
         <v>2</v>
@@ -13520,7 +13632,7 @@
         <v>908</v>
       </c>
       <c r="B910" s="0" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="C910" s="0" t="n">
         <v>2</v>
@@ -13531,7 +13643,7 @@
         <v>909</v>
       </c>
       <c r="B911" s="0" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="C911" s="0" t="n">
         <v>2</v>
@@ -13542,7 +13654,7 @@
         <v>910</v>
       </c>
       <c r="B912" s="0" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="C912" s="0" t="n">
         <v>2</v>
@@ -13553,7 +13665,7 @@
         <v>911</v>
       </c>
       <c r="B913" s="0" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="C913" s="0" t="n">
         <v>2</v>
@@ -13564,7 +13676,7 @@
         <v>912</v>
       </c>
       <c r="B914" s="0" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="C914" s="0" t="n">
         <v>2</v>
@@ -13575,7 +13687,7 @@
         <v>913</v>
       </c>
       <c r="B915" s="0" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="C915" s="0" t="n">
         <v>2</v>
@@ -13586,7 +13698,7 @@
         <v>914</v>
       </c>
       <c r="B916" s="0" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="C916" s="0" t="n">
         <v>2</v>
@@ -13597,7 +13709,7 @@
         <v>915</v>
       </c>
       <c r="B917" s="0" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="C917" s="0" t="n">
         <v>2</v>
@@ -13608,7 +13720,7 @@
         <v>916</v>
       </c>
       <c r="B918" s="0" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="C918" s="0" t="n">
         <v>2</v>
@@ -13619,7 +13731,7 @@
         <v>917</v>
       </c>
       <c r="B919" s="0" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="C919" s="0" t="n">
         <v>2</v>
@@ -13630,7 +13742,7 @@
         <v>918</v>
       </c>
       <c r="B920" s="0" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="C920" s="0" t="n">
         <v>2</v>
@@ -13641,7 +13753,7 @@
         <v>919</v>
       </c>
       <c r="B921" s="0" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="C921" s="0" t="n">
         <v>2</v>
@@ -13652,7 +13764,7 @@
         <v>920</v>
       </c>
       <c r="B922" s="0" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="C922" s="0" t="n">
         <v>2</v>
@@ -13663,7 +13775,7 @@
         <v>921</v>
       </c>
       <c r="B923" s="0" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="C923" s="0" t="n">
         <v>2</v>
@@ -13674,7 +13786,7 @@
         <v>922</v>
       </c>
       <c r="B924" s="0" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="C924" s="0" t="n">
         <v>2</v>
@@ -13685,7 +13797,7 @@
         <v>923</v>
       </c>
       <c r="B925" s="0" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="C925" s="0" t="n">
         <v>2</v>
@@ -13696,7 +13808,7 @@
         <v>924</v>
       </c>
       <c r="B926" s="0" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="C926" s="0" t="n">
         <v>2</v>
@@ -13707,7 +13819,7 @@
         <v>925</v>
       </c>
       <c r="B927" s="0" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="C927" s="0" t="n">
         <v>2</v>
@@ -13718,7 +13830,7 @@
         <v>926</v>
       </c>
       <c r="B928" s="0" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="C928" s="0" t="n">
         <v>2</v>
@@ -13729,7 +13841,7 @@
         <v>927</v>
       </c>
       <c r="B929" s="0" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="C929" s="0" t="n">
         <v>2</v>
@@ -13740,7 +13852,7 @@
         <v>928</v>
       </c>
       <c r="B930" s="0" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="C930" s="0" t="n">
         <v>2</v>
@@ -13751,7 +13863,7 @@
         <v>929</v>
       </c>
       <c r="B931" s="0" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="C931" s="0" t="n">
         <v>2</v>
@@ -13762,7 +13874,7 @@
         <v>930</v>
       </c>
       <c r="B932" s="0" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="C932" s="0" t="n">
         <v>2</v>
@@ -13773,7 +13885,7 @@
         <v>931</v>
       </c>
       <c r="B933" s="0" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="C933" s="0" t="n">
         <v>2</v>
@@ -13784,7 +13896,7 @@
         <v>932</v>
       </c>
       <c r="B934" s="0" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="C934" s="0" t="n">
         <v>2</v>
@@ -13795,7 +13907,7 @@
         <v>933</v>
       </c>
       <c r="B935" s="0" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="C935" s="0" t="n">
         <v>2</v>
@@ -13806,7 +13918,7 @@
         <v>934</v>
       </c>
       <c r="B936" s="0" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="C936" s="0" t="n">
         <v>2</v>
@@ -13817,7 +13929,7 @@
         <v>935</v>
       </c>
       <c r="B937" s="0" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="C937" s="0" t="n">
         <v>2</v>
@@ -13828,7 +13940,7 @@
         <v>936</v>
       </c>
       <c r="B938" s="0" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="C938" s="0" t="n">
         <v>2</v>
@@ -13839,7 +13951,7 @@
         <v>937</v>
       </c>
       <c r="B939" s="0" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="C939" s="0" t="n">
         <v>2</v>
@@ -13850,7 +13962,7 @@
         <v>938</v>
       </c>
       <c r="B940" s="0" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="C940" s="0" t="n">
         <v>2</v>
@@ -13861,7 +13973,7 @@
         <v>939</v>
       </c>
       <c r="B941" s="0" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="C941" s="0" t="n">
         <v>2</v>
@@ -13872,7 +13984,7 @@
         <v>940</v>
       </c>
       <c r="B942" s="0" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="C942" s="0" t="n">
         <v>2</v>
@@ -13883,7 +13995,7 @@
         <v>941</v>
       </c>
       <c r="B943" s="0" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="C943" s="0" t="n">
         <v>1</v>
@@ -13894,7 +14006,7 @@
         <v>942</v>
       </c>
       <c r="B944" s="0" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="C944" s="0" t="n">
         <v>1</v>
@@ -13905,7 +14017,7 @@
         <v>943</v>
       </c>
       <c r="B945" s="0" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="C945" s="0" t="n">
         <v>1</v>
@@ -13916,7 +14028,7 @@
         <v>944</v>
       </c>
       <c r="B946" s="0" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C946" s="0" t="n">
         <v>1</v>
@@ -13927,7 +14039,7 @@
         <v>945</v>
       </c>
       <c r="B947" s="0" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="C947" s="0" t="n">
         <v>1</v>
@@ -13938,7 +14050,7 @@
         <v>946</v>
       </c>
       <c r="B948" s="0" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="C948" s="0" t="n">
         <v>1</v>
@@ -13949,7 +14061,7 @@
         <v>947</v>
       </c>
       <c r="B949" s="0" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="C949" s="0" t="n">
         <v>1</v>
@@ -13960,7 +14072,7 @@
         <v>948</v>
       </c>
       <c r="B950" s="0" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="C950" s="0" t="n">
         <v>1</v>
@@ -13971,7 +14083,7 @@
         <v>949</v>
       </c>
       <c r="B951" s="0" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="C951" s="0" t="n">
         <v>1</v>
@@ -13982,7 +14094,7 @@
         <v>950</v>
       </c>
       <c r="B952" s="0" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="C952" s="0" t="n">
         <v>1</v>
@@ -13993,7 +14105,7 @@
         <v>951</v>
       </c>
       <c r="B953" s="0" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="C953" s="0" t="n">
         <v>1</v>
@@ -14004,7 +14116,7 @@
         <v>952</v>
       </c>
       <c r="B954" s="0" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="C954" s="0" t="n">
         <v>1</v>
@@ -14015,7 +14127,7 @@
         <v>953</v>
       </c>
       <c r="B955" s="0" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="C955" s="0" t="n">
         <v>1</v>
@@ -14026,7 +14138,7 @@
         <v>954</v>
       </c>
       <c r="B956" s="0" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="C956" s="0" t="n">
         <v>1</v>
@@ -14037,7 +14149,7 @@
         <v>955</v>
       </c>
       <c r="B957" s="0" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="C957" s="0" t="n">
         <v>1</v>
@@ -14048,7 +14160,7 @@
         <v>956</v>
       </c>
       <c r="B958" s="0" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="C958" s="0" t="n">
         <v>1</v>
@@ -14059,7 +14171,7 @@
         <v>957</v>
       </c>
       <c r="B959" s="0" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="C959" s="0" t="n">
         <v>1</v>
@@ -14070,7 +14182,7 @@
         <v>958</v>
       </c>
       <c r="B960" s="0" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="C960" s="0" t="n">
         <v>1</v>
@@ -14081,7 +14193,7 @@
         <v>959</v>
       </c>
       <c r="B961" s="0" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="C961" s="0" t="n">
         <v>1</v>
@@ -14092,7 +14204,7 @@
         <v>960</v>
       </c>
       <c r="B962" s="0" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="C962" s="0" t="n">
         <v>1</v>
@@ -14103,7 +14215,7 @@
         <v>961</v>
       </c>
       <c r="B963" s="0" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="C963" s="0" t="n">
         <v>1</v>
@@ -14114,7 +14226,7 @@
         <v>962</v>
       </c>
       <c r="B964" s="0" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="C964" s="0" t="n">
         <v>1</v>
@@ -14125,7 +14237,7 @@
         <v>963</v>
       </c>
       <c r="B965" s="0" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="C965" s="0" t="n">
         <v>1</v>
@@ -14136,7 +14248,7 @@
         <v>964</v>
       </c>
       <c r="B966" s="0" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="C966" s="0" t="n">
         <v>1</v>
@@ -14147,7 +14259,7 @@
         <v>965</v>
       </c>
       <c r="B967" s="0" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="C967" s="0" t="n">
         <v>1</v>
@@ -14158,7 +14270,7 @@
         <v>966</v>
       </c>
       <c r="B968" s="0" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="C968" s="0" t="n">
         <v>1</v>
@@ -14169,7 +14281,7 @@
         <v>967</v>
       </c>
       <c r="B969" s="0" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="C969" s="0" t="n">
         <v>1</v>
@@ -14180,7 +14292,7 @@
         <v>968</v>
       </c>
       <c r="B970" s="0" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="C970" s="0" t="n">
         <v>1</v>
@@ -14191,7 +14303,7 @@
         <v>969</v>
       </c>
       <c r="B971" s="0" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="C971" s="0" t="n">
         <v>1</v>
@@ -14202,7 +14314,7 @@
         <v>970</v>
       </c>
       <c r="B972" s="0" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="C972" s="0" t="n">
         <v>1</v>
@@ -14213,7 +14325,7 @@
         <v>971</v>
       </c>
       <c r="B973" s="0" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="C973" s="0" t="n">
         <v>1</v>
@@ -14224,7 +14336,7 @@
         <v>972</v>
       </c>
       <c r="B974" s="0" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="C974" s="0" t="n">
         <v>1</v>
@@ -14235,7 +14347,7 @@
         <v>973</v>
       </c>
       <c r="B975" s="0" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="C975" s="0" t="n">
         <v>1</v>
@@ -14246,7 +14358,7 @@
         <v>974</v>
       </c>
       <c r="B976" s="0" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="C976" s="0" t="n">
         <v>1</v>
@@ -14257,7 +14369,7 @@
         <v>975</v>
       </c>
       <c r="B977" s="0" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="C977" s="0" t="n">
         <v>1</v>
@@ -14268,7 +14380,7 @@
         <v>976</v>
       </c>
       <c r="B978" s="0" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="C978" s="0" t="n">
         <v>1</v>
@@ -14279,7 +14391,7 @@
         <v>977</v>
       </c>
       <c r="B979" s="0" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="C979" s="0" t="n">
         <v>1</v>
@@ -14290,7 +14402,7 @@
         <v>978</v>
       </c>
       <c r="B980" s="0" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="C980" s="0" t="n">
         <v>1</v>
@@ -14301,7 +14413,7 @@
         <v>979</v>
       </c>
       <c r="B981" s="0" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="C981" s="0" t="n">
         <v>1</v>
@@ -14312,7 +14424,7 @@
         <v>980</v>
       </c>
       <c r="B982" s="0" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="C982" s="0" t="n">
         <v>1</v>
@@ -14323,7 +14435,7 @@
         <v>981</v>
       </c>
       <c r="B983" s="0" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="C983" s="0" t="n">
         <v>1</v>
@@ -14334,7 +14446,7 @@
         <v>982</v>
       </c>
       <c r="B984" s="0" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="C984" s="0" t="n">
         <v>1</v>
@@ -14345,7 +14457,7 @@
         <v>983</v>
       </c>
       <c r="B985" s="0" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="C985" s="0" t="n">
         <v>1</v>
@@ -14356,7 +14468,7 @@
         <v>984</v>
       </c>
       <c r="B986" s="0" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="C986" s="0" t="n">
         <v>1</v>
@@ -14367,7 +14479,7 @@
         <v>985</v>
       </c>
       <c r="B987" s="0" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="C987" s="0" t="n">
         <v>1</v>
@@ -14378,7 +14490,7 @@
         <v>986</v>
       </c>
       <c r="B988" s="0" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="C988" s="0" t="n">
         <v>1</v>
@@ -14389,7 +14501,7 @@
         <v>987</v>
       </c>
       <c r="B989" s="0" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="C989" s="0" t="n">
         <v>1</v>
@@ -14400,7 +14512,7 @@
         <v>988</v>
       </c>
       <c r="B990" s="0" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="C990" s="0" t="n">
         <v>1</v>
@@ -14411,7 +14523,7 @@
         <v>989</v>
       </c>
       <c r="B991" s="0" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="C991" s="0" t="n">
         <v>1</v>
@@ -14422,7 +14534,7 @@
         <v>990</v>
       </c>
       <c r="B992" s="0" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="C992" s="0" t="n">
         <v>1</v>
@@ -14433,7 +14545,7 @@
         <v>991</v>
       </c>
       <c r="B993" s="0" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="C993" s="0" t="n">
         <v>1</v>
@@ -14444,7 +14556,7 @@
         <v>992</v>
       </c>
       <c r="B994" s="0" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="C994" s="0" t="n">
         <v>1</v>
@@ -14455,7 +14567,7 @@
         <v>993</v>
       </c>
       <c r="B995" s="0" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="C995" s="0" t="n">
         <v>1</v>
@@ -14466,7 +14578,7 @@
         <v>994</v>
       </c>
       <c r="B996" s="0" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="C996" s="0" t="n">
         <v>1</v>
@@ -14477,7 +14589,7 @@
         <v>995</v>
       </c>
       <c r="B997" s="0" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C997" s="0" t="n">
         <v>1</v>
@@ -14488,7 +14600,7 @@
         <v>996</v>
       </c>
       <c r="B998" s="0" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="C998" s="0" t="n">
         <v>1</v>
@@ -14499,7 +14611,7 @@
         <v>997</v>
       </c>
       <c r="B999" s="0" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="C999" s="0" t="n">
         <v>1</v>
@@ -14510,7 +14622,7 @@
         <v>998</v>
       </c>
       <c r="B1000" s="0" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="C1000" s="0" t="n">
         <v>1</v>
@@ -14521,7 +14633,7 @@
         <v>999</v>
       </c>
       <c r="B1001" s="0" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="C1001" s="0" t="n">
         <v>1</v>
@@ -14532,7 +14644,7 @@
         <v>1000</v>
       </c>
       <c r="B1002" s="0" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="C1002" s="0" t="n">
         <v>1</v>
@@ -14543,7 +14655,7 @@
         <v>1001</v>
       </c>
       <c r="B1003" s="0" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="C1003" s="0" t="n">
         <v>1</v>
@@ -14554,7 +14666,7 @@
         <v>1002</v>
       </c>
       <c r="B1004" s="0" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="C1004" s="0" t="n">
         <v>1</v>
@@ -14565,7 +14677,7 @@
         <v>1003</v>
       </c>
       <c r="B1005" s="0" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="C1005" s="0" t="n">
         <v>1</v>
@@ -14576,7 +14688,7 @@
         <v>1004</v>
       </c>
       <c r="B1006" s="0" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="C1006" s="0" t="n">
         <v>1</v>
@@ -14587,7 +14699,7 @@
         <v>1005</v>
       </c>
       <c r="B1007" s="0" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C1007" s="0" t="n">
         <v>1</v>
@@ -14598,7 +14710,7 @@
         <v>1006</v>
       </c>
       <c r="B1008" s="0" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="C1008" s="0" t="n">
         <v>1</v>
@@ -14609,7 +14721,7 @@
         <v>1007</v>
       </c>
       <c r="B1009" s="0" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="C1009" s="0" t="n">
         <v>1</v>
@@ -14620,7 +14732,7 @@
         <v>1008</v>
       </c>
       <c r="B1010" s="0" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="C1010" s="0" t="n">
         <v>1</v>
@@ -14631,7 +14743,7 @@
         <v>1009</v>
       </c>
       <c r="B1011" s="0" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="C1011" s="0" t="n">
         <v>1</v>
@@ -14642,7 +14754,7 @@
         <v>1010</v>
       </c>
       <c r="B1012" s="0" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="C1012" s="0" t="n">
         <v>1</v>
@@ -14653,7 +14765,7 @@
         <v>1011</v>
       </c>
       <c r="B1013" s="0" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="C1013" s="0" t="n">
         <v>1</v>
@@ -14664,7 +14776,7 @@
         <v>1012</v>
       </c>
       <c r="B1014" s="0" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="C1014" s="0" t="n">
         <v>1</v>
@@ -14675,7 +14787,7 @@
         <v>1013</v>
       </c>
       <c r="B1015" s="0" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="C1015" s="0" t="n">
         <v>1</v>
@@ -14686,7 +14798,7 @@
         <v>1014</v>
       </c>
       <c r="B1016" s="0" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="C1016" s="0" t="n">
         <v>1</v>
@@ -14697,7 +14809,7 @@
         <v>1015</v>
       </c>
       <c r="B1017" s="0" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="C1017" s="0" t="n">
         <v>1</v>
@@ -14708,7 +14820,7 @@
         <v>1016</v>
       </c>
       <c r="B1018" s="0" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="C1018" s="0" t="n">
         <v>1</v>
@@ -14719,7 +14831,7 @@
         <v>1017</v>
       </c>
       <c r="B1019" s="0" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="C1019" s="0" t="n">
         <v>1</v>
@@ -14730,7 +14842,7 @@
         <v>1018</v>
       </c>
       <c r="B1020" s="0" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="C1020" s="0" t="n">
         <v>1</v>
@@ -14741,7 +14853,7 @@
         <v>1019</v>
       </c>
       <c r="B1021" s="0" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="C1021" s="0" t="n">
         <v>1</v>
@@ -14752,7 +14864,7 @@
         <v>1020</v>
       </c>
       <c r="B1022" s="0" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="C1022" s="0" t="n">
         <v>1</v>
@@ -14763,7 +14875,7 @@
         <v>1021</v>
       </c>
       <c r="B1023" s="0" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="C1023" s="0" t="n">
         <v>1</v>
@@ -14774,7 +14886,7 @@
         <v>1022</v>
       </c>
       <c r="B1024" s="0" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="C1024" s="0" t="n">
         <v>1</v>
@@ -14785,7 +14897,7 @@
         <v>1023</v>
       </c>
       <c r="B1025" s="0" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="C1025" s="0" t="n">
         <v>1</v>
@@ -14796,7 +14908,7 @@
         <v>1024</v>
       </c>
       <c r="B1026" s="0" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="C1026" s="0" t="n">
         <v>1</v>
@@ -14807,7 +14919,7 @@
         <v>1025</v>
       </c>
       <c r="B1027" s="0" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="C1027" s="0" t="n">
         <v>1</v>
